--- a/Buttons/Button_List.xlsx
+++ b/Buttons/Button_List.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ptoth/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ptoth/Documents/Git/A320Overhead/Buttons/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{561B1035-0159-5D43-921E-81282245967E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{B73E093F-F015-F24C-9DE9-2F2327390CC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" activeTab="6" xr2:uid="{FDAB788E-CCDB-1B47-AE52-300FE5AA462F}"/>
+    <workbookView xWindow="-38400" yWindow="460" windowWidth="38400" windowHeight="21140" firstSheet="1" activeTab="16" xr2:uid="{FDAB788E-CCDB-1B47-AE52-300FE5AA462F}"/>
   </bookViews>
   <sheets>
     <sheet name="Iluminação" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,14 @@
     <sheet name="Right_Side" sheetId="9" r:id="rId7"/>
     <sheet name="Left_Side" sheetId="10" r:id="rId8"/>
     <sheet name="Totais" sheetId="11" r:id="rId9"/>
+    <sheet name="Board_01_Buttons" sheetId="12" r:id="rId10"/>
+    <sheet name="Board_01_Leds" sheetId="16" r:id="rId11"/>
+    <sheet name="Board_02_Buttons" sheetId="13" r:id="rId12"/>
+    <sheet name="Board_02_Leds" sheetId="17" r:id="rId13"/>
+    <sheet name="Board_03_Buttons" sheetId="14" r:id="rId14"/>
+    <sheet name="Board_03_Leds" sheetId="18" r:id="rId15"/>
+    <sheet name="Board_04_Buttons" sheetId="15" r:id="rId16"/>
+    <sheet name="Board_04_Leds" sheetId="19" r:id="rId17"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Ar Condicionado'!$A$1:$N$13</definedName>
@@ -34,6 +42,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Right_Side!$A$1:$N$19</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -51,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1640" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2718" uniqueCount="568">
   <si>
     <t>Codigo do Botão</t>
   </si>
@@ -1470,13 +1479,298 @@
   </si>
   <si>
     <t>S_03_36_R</t>
+  </si>
+  <si>
+    <t>S_01_04_R</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> S_01_05_R</t>
+  </si>
+  <si>
+    <t>S_01_06_R</t>
+  </si>
+  <si>
+    <t>S_01_07_R</t>
+  </si>
+  <si>
+    <t>S_01_08_R</t>
+  </si>
+  <si>
+    <t>S_01_09_R</t>
+  </si>
+  <si>
+    <t>S_01_10_R</t>
+  </si>
+  <si>
+    <t>S_01_11_R</t>
+  </si>
+  <si>
+    <t>S_01_12_R</t>
+  </si>
+  <si>
+    <t>S_01_13_R</t>
+  </si>
+  <si>
+    <t>S_01_14_R</t>
+  </si>
+  <si>
+    <t>S_01_15_R</t>
+  </si>
+  <si>
+    <t>S_01_16_R</t>
+  </si>
+  <si>
+    <t>S_01_17_R</t>
+  </si>
+  <si>
+    <t>S_01_18_R</t>
+  </si>
+  <si>
+    <t>S_01_19_R</t>
+  </si>
+  <si>
+    <t>S_01_20_R</t>
+  </si>
+  <si>
+    <t>S_01_21_R</t>
+  </si>
+  <si>
+    <t>S_01_22_R</t>
+  </si>
+  <si>
+    <t>S_01_23_R</t>
+  </si>
+  <si>
+    <t>S_04_08_R</t>
+  </si>
+  <si>
+    <t>S_04_09_R</t>
+  </si>
+  <si>
+    <t>Header 01</t>
+  </si>
+  <si>
+    <t>S_04_19_R</t>
+  </si>
+  <si>
+    <t>S_04_21_R</t>
+  </si>
+  <si>
+    <t>S_04_23_R</t>
+  </si>
+  <si>
+    <t>S_04_25_R</t>
+  </si>
+  <si>
+    <t>Header P2</t>
+  </si>
+  <si>
+    <t>S_04_29_R</t>
+  </si>
+  <si>
+    <t>S_04_30_R</t>
+  </si>
+  <si>
+    <t>S_04_31_R</t>
+  </si>
+  <si>
+    <t>Header P1</t>
+  </si>
+  <si>
+    <t>S_04_34_R</t>
+  </si>
+  <si>
+    <t>S_04_36_R</t>
+  </si>
+  <si>
+    <t>S_04_24_R</t>
+  </si>
+  <si>
+    <t>Não Utilizados</t>
+  </si>
+  <si>
+    <t>S_04_26_R</t>
+  </si>
+  <si>
+    <t>S_04_27_R</t>
+  </si>
+  <si>
+    <t>S_04_28_R</t>
+  </si>
+  <si>
+    <t>S_04_32_R</t>
+  </si>
+  <si>
+    <t>S_04_33_R</t>
+  </si>
+  <si>
+    <t>S_04_35_R</t>
+  </si>
+  <si>
+    <t>A12</t>
+  </si>
+  <si>
+    <t>A13</t>
+  </si>
+  <si>
+    <t>A14</t>
+  </si>
+  <si>
+    <t>A15</t>
+  </si>
+  <si>
+    <t>A16</t>
+  </si>
+  <si>
+    <t>Led_Bank_1</t>
+  </si>
+  <si>
+    <t>Led_Bank_2</t>
+  </si>
+  <si>
+    <t>Led_Bank_3</t>
+  </si>
+  <si>
+    <t>Led_Bank_4</t>
+  </si>
+  <si>
+    <t>Led_Bank_5</t>
+  </si>
+  <si>
+    <t>Led_Bank_6</t>
+  </si>
+  <si>
+    <t>Led_Bank_7</t>
+  </si>
+  <si>
+    <t>Led_Bank_8</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>Led_Bank_9</t>
+  </si>
+  <si>
+    <t>Led_Bank_10</t>
+  </si>
+  <si>
+    <t>Led_Bank_11</t>
+  </si>
+  <si>
+    <t>Led_Bank_12</t>
+  </si>
+  <si>
+    <t>Led_Bank_13</t>
+  </si>
+  <si>
+    <t>Led_Bank_14</t>
+  </si>
+  <si>
+    <t>Led_Bank_15</t>
+  </si>
+  <si>
+    <t>Led_Bank_16</t>
+  </si>
+  <si>
+    <t>Led_Bank_17</t>
+  </si>
+  <si>
+    <t>Led_Bank_18</t>
+  </si>
+  <si>
+    <t>Led_Bank_19</t>
+  </si>
+  <si>
+    <t>Led_Bank_20</t>
+  </si>
+  <si>
+    <t>Led_Bank_21</t>
+  </si>
+  <si>
+    <t>Led_Bank_22</t>
+  </si>
+  <si>
+    <t>Led_Bank_23</t>
+  </si>
+  <si>
+    <t>Led_Bank_24</t>
+  </si>
+  <si>
+    <t>Led_Bank_25</t>
+  </si>
+  <si>
+    <t>Led_Bank_26</t>
+  </si>
+  <si>
+    <t>Led_Bank_27</t>
+  </si>
+  <si>
+    <t>Led_Bank_28</t>
+  </si>
+  <si>
+    <t>Led_Bank_29</t>
+  </si>
+  <si>
+    <t>Led_Bank_30</t>
+  </si>
+  <si>
+    <t>Led_Bank_31</t>
+  </si>
+  <si>
+    <t>Led_Bank_32</t>
+  </si>
+  <si>
+    <t>LED OUT 01</t>
+  </si>
+  <si>
+    <t>LED OUT 02</t>
+  </si>
+  <si>
+    <t>LED OUT 03</t>
+  </si>
+  <si>
+    <t>LED OUT 04</t>
+  </si>
+  <si>
+    <t>LED OUT 05</t>
+  </si>
+  <si>
+    <t>LED OUT 06</t>
+  </si>
+  <si>
+    <t>LED OUT 07</t>
+  </si>
+  <si>
+    <t>LED OUT 08</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1503,8 +1797,22 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1519,12 +1827,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1584,11 +1904,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1638,6 +1982,37 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1650,13 +2025,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1975,8 +2354,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59ABF019-C0B4-E24D-9262-6B6B1A6E996E}">
   <dimension ref="A1:N36"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3169,80 +3548,80 @@
       </c>
     </row>
     <row r="29" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="L29" s="17" t="s">
+      <c r="L29" s="28" t="s">
         <v>157</v>
       </c>
-      <c r="M29" s="17"/>
+      <c r="M29" s="28"/>
       <c r="N29" s="3">
         <f>SUMIF(M2:M27,"Digital",N2:N27)</f>
         <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="L30" s="17" t="s">
+      <c r="L30" s="28" t="s">
         <v>158</v>
       </c>
-      <c r="M30" s="17"/>
+      <c r="M30" s="28"/>
       <c r="N30" s="3">
         <f>COUNTIF(M2:M27,"Analógico")</f>
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="L31" s="17" t="s">
+      <c r="L31" s="28" t="s">
         <v>159</v>
       </c>
-      <c r="M31" s="17"/>
+      <c r="M31" s="28"/>
       <c r="N31" s="3">
         <f>SUM(F2:F27)</f>
         <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="L32" s="17" t="s">
+      <c r="L32" s="28" t="s">
         <v>172</v>
       </c>
-      <c r="M32" s="17"/>
+      <c r="M32" s="28"/>
       <c r="N32" s="3">
         <f>COUNTIF(H2:J27, "Azul")</f>
         <v>6</v>
       </c>
     </row>
     <row r="33" spans="12:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="L33" s="17" t="s">
+      <c r="L33" s="28" t="s">
         <v>173</v>
       </c>
-      <c r="M33" s="17"/>
+      <c r="M33" s="28"/>
       <c r="N33" s="3">
         <f>COUNTIF(H2:J27, "Laranja")</f>
         <v>6</v>
       </c>
     </row>
     <row r="34" spans="12:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="L34" s="17" t="s">
+      <c r="L34" s="28" t="s">
         <v>174</v>
       </c>
-      <c r="M34" s="17"/>
+      <c r="M34" s="28"/>
       <c r="N34" s="3">
         <f>COUNTIF(H2:J27, "Branco")</f>
         <v>2</v>
       </c>
     </row>
     <row r="35" spans="12:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="L35" s="17" t="s">
+      <c r="L35" s="28" t="s">
         <v>175</v>
       </c>
-      <c r="M35" s="17"/>
+      <c r="M35" s="28"/>
       <c r="N35" s="3">
         <f>COUNTIF(H2:J27, "Verde")</f>
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="12:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="L36" s="17" t="s">
+      <c r="L36" s="28" t="s">
         <v>176</v>
       </c>
-      <c r="M36" s="17"/>
+      <c r="M36" s="28"/>
       <c r="N36" s="3">
         <f>SUM(N32:N35)</f>
         <v>15</v>
@@ -3265,12 +3644,5377 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7C1F4B3-22B5-C64A-9DE6-E01F62AC2D3D}">
+  <dimension ref="A1:C42"/>
+  <sheetViews>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.83203125" customWidth="1"/>
+    <col min="2" max="2" width="28.1640625" customWidth="1"/>
+    <col min="3" max="3" width="28.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="17">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="18">
+        <v>2</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="17">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="18">
+        <v>4</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="18">
+        <v>4</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="17">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="17">
+        <v>5</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="18">
+        <v>6</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="18">
+        <v>6</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="17">
+        <v>7</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="17">
+        <v>7</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="18">
+        <v>8</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="18">
+        <v>8</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="17">
+        <v>9</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="17">
+        <v>9</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="18">
+        <v>10</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="18">
+        <v>10</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="17">
+        <v>11</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="17">
+        <v>11</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="18">
+        <v>12</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="18">
+        <v>12</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="17">
+        <v>13</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="18">
+        <v>13</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="17">
+        <v>14</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="18">
+        <v>15</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="17">
+        <v>16</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="18">
+        <v>17</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="17">
+        <v>18</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="18">
+        <v>19</v>
+      </c>
+      <c r="B29" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="17">
+        <v>20</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="18">
+        <v>21</v>
+      </c>
+      <c r="B31" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="17">
+        <v>22</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="18">
+        <v>23</v>
+      </c>
+      <c r="B33" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="17">
+        <v>24</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="18">
+        <v>25</v>
+      </c>
+      <c r="B35" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="17">
+        <v>26</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="27">
+        <v>1</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C39" s="27" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="35">
+        <v>2</v>
+      </c>
+      <c r="B40" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C40" s="35" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="27">
+        <v>3</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C41" s="27" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="35">
+        <v>4</v>
+      </c>
+      <c r="B42" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C42" s="35" t="s">
+        <v>222</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{393EDE6F-9433-FA43-B832-6ADE4DE98B75}">
+  <dimension ref="A1:D64"/>
+  <sheetViews>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="H46" sqref="H46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="9.83203125" customWidth="1"/>
+    <col min="3" max="3" width="28.1640625" customWidth="1"/>
+    <col min="4" max="4" width="28.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="21">
+        <v>1</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>528</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>520</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="21">
+        <v>1</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>529</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>520</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="21">
+        <v>1</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>530</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>520</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="21">
+        <v>1</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>531</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>520</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="21">
+        <v>1</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>532</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>520</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="21">
+        <v>1</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>533</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>520</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="21">
+        <v>1</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>534</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>520</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="21">
+        <v>1</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>535</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>520</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="18">
+        <v>2</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>528</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>521</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="18">
+        <v>2</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>529</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>521</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="18">
+        <v>2</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>530</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>521</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="18">
+        <v>2</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>531</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>521</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="18">
+        <v>2</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>532</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>521</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="18">
+        <v>2</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>533</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>521</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="18">
+        <v>2</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>534</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>521</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="18">
+        <v>2</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>535</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>521</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="21">
+        <v>3</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>528</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>522</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="21">
+        <v>3</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>529</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>522</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="21">
+        <v>3</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>530</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>522</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="21">
+        <v>3</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>531</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>522</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="21">
+        <v>3</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>532</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>522</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="21">
+        <v>3</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>533</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>522</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="21">
+        <v>3</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>534</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>522</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="21">
+        <v>3</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>535</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>522</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="18">
+        <v>4</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>528</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>523</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="18">
+        <v>4</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>529</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>523</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="18">
+        <v>5</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>530</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>523</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="18">
+        <v>5</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>531</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>523</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="18">
+        <v>6</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>532</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>523</v>
+      </c>
+      <c r="D29" s="19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="18">
+        <v>6</v>
+      </c>
+      <c r="B30" s="18" t="s">
+        <v>533</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>523</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="18">
+        <v>7</v>
+      </c>
+      <c r="B31" s="18" t="s">
+        <v>534</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>523</v>
+      </c>
+      <c r="D31" s="19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="18">
+        <v>8</v>
+      </c>
+      <c r="B32" s="18" t="s">
+        <v>535</v>
+      </c>
+      <c r="C32" s="19" t="s">
+        <v>523</v>
+      </c>
+      <c r="D32" s="19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="21">
+        <v>8</v>
+      </c>
+      <c r="B33" s="21" t="s">
+        <v>528</v>
+      </c>
+      <c r="C33" s="22" t="s">
+        <v>524</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="21">
+        <v>9</v>
+      </c>
+      <c r="B34" s="21" t="s">
+        <v>529</v>
+      </c>
+      <c r="C34" s="22" t="s">
+        <v>524</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="21">
+        <v>9</v>
+      </c>
+      <c r="B35" s="21" t="s">
+        <v>530</v>
+      </c>
+      <c r="C35" s="22" t="s">
+        <v>524</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="21">
+        <v>10</v>
+      </c>
+      <c r="B36" s="21" t="s">
+        <v>531</v>
+      </c>
+      <c r="C36" s="22" t="s">
+        <v>524</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="21">
+        <v>10</v>
+      </c>
+      <c r="B37" s="21" t="s">
+        <v>532</v>
+      </c>
+      <c r="C37" s="22" t="s">
+        <v>524</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="21">
+        <v>11</v>
+      </c>
+      <c r="B38" s="21" t="s">
+        <v>533</v>
+      </c>
+      <c r="C38" s="22" t="s">
+        <v>524</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="17">
+        <v>12</v>
+      </c>
+      <c r="B39" s="21" t="s">
+        <v>534</v>
+      </c>
+      <c r="C39" s="22" t="s">
+        <v>524</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="17">
+        <v>13</v>
+      </c>
+      <c r="B40" s="21" t="s">
+        <v>535</v>
+      </c>
+      <c r="C40" s="22" t="s">
+        <v>524</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="18">
+        <v>13</v>
+      </c>
+      <c r="B41" s="18" t="s">
+        <v>528</v>
+      </c>
+      <c r="C41" s="19" t="s">
+        <v>525</v>
+      </c>
+      <c r="D41" s="19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="18">
+        <v>14</v>
+      </c>
+      <c r="B42" s="18" t="s">
+        <v>529</v>
+      </c>
+      <c r="C42" s="19" t="s">
+        <v>525</v>
+      </c>
+      <c r="D42" s="19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="18">
+        <v>14</v>
+      </c>
+      <c r="B43" s="18" t="s">
+        <v>530</v>
+      </c>
+      <c r="C43" s="19" t="s">
+        <v>525</v>
+      </c>
+      <c r="D43" s="19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="18">
+        <v>15</v>
+      </c>
+      <c r="B44" s="18" t="s">
+        <v>531</v>
+      </c>
+      <c r="C44" s="19" t="s">
+        <v>525</v>
+      </c>
+      <c r="D44" s="19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="18">
+        <v>15</v>
+      </c>
+      <c r="B45" s="18" t="s">
+        <v>532</v>
+      </c>
+      <c r="C45" s="19" t="s">
+        <v>525</v>
+      </c>
+      <c r="D45" s="19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="18">
+        <v>16</v>
+      </c>
+      <c r="B46" s="18" t="s">
+        <v>533</v>
+      </c>
+      <c r="C46" s="19" t="s">
+        <v>525</v>
+      </c>
+      <c r="D46" s="19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="18">
+        <v>16</v>
+      </c>
+      <c r="B47" s="18" t="s">
+        <v>534</v>
+      </c>
+      <c r="C47" s="19" t="s">
+        <v>525</v>
+      </c>
+      <c r="D47" s="19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="18">
+        <v>17</v>
+      </c>
+      <c r="B48" s="18" t="s">
+        <v>535</v>
+      </c>
+      <c r="C48" s="19" t="s">
+        <v>525</v>
+      </c>
+      <c r="D48" s="19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="17">
+        <v>18</v>
+      </c>
+      <c r="B49" s="21" t="s">
+        <v>528</v>
+      </c>
+      <c r="C49" s="22" t="s">
+        <v>526</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="17">
+        <v>18</v>
+      </c>
+      <c r="B50" s="21" t="s">
+        <v>529</v>
+      </c>
+      <c r="C50" s="22" t="s">
+        <v>526</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="17">
+        <v>19</v>
+      </c>
+      <c r="B51" s="21" t="s">
+        <v>530</v>
+      </c>
+      <c r="C51" s="22" t="s">
+        <v>526</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="17">
+        <v>19</v>
+      </c>
+      <c r="B52" s="21" t="s">
+        <v>531</v>
+      </c>
+      <c r="C52" s="22" t="s">
+        <v>526</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="17">
+        <v>20</v>
+      </c>
+      <c r="B53" s="21" t="s">
+        <v>532</v>
+      </c>
+      <c r="C53" s="22" t="s">
+        <v>526</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="17">
+        <v>20</v>
+      </c>
+      <c r="B54" s="21" t="s">
+        <v>533</v>
+      </c>
+      <c r="C54" s="22" t="s">
+        <v>526</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="17">
+        <v>21</v>
+      </c>
+      <c r="B55" s="21" t="s">
+        <v>534</v>
+      </c>
+      <c r="C55" s="22" t="s">
+        <v>526</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="17">
+        <v>21</v>
+      </c>
+      <c r="B56" s="21" t="s">
+        <v>535</v>
+      </c>
+      <c r="C56" s="22" t="s">
+        <v>526</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="18">
+        <v>22</v>
+      </c>
+      <c r="B57" s="18" t="s">
+        <v>528</v>
+      </c>
+      <c r="C57" s="19" t="s">
+        <v>527</v>
+      </c>
+      <c r="D57" s="19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="18">
+        <v>22</v>
+      </c>
+      <c r="B58" s="18" t="s">
+        <v>529</v>
+      </c>
+      <c r="C58" s="19" t="s">
+        <v>527</v>
+      </c>
+      <c r="D58" s="19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="18">
+        <v>23</v>
+      </c>
+      <c r="B59" s="18" t="s">
+        <v>530</v>
+      </c>
+      <c r="C59" s="19" t="s">
+        <v>527</v>
+      </c>
+      <c r="D59" s="19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="18">
+        <v>23</v>
+      </c>
+      <c r="B60" s="18" t="s">
+        <v>531</v>
+      </c>
+      <c r="C60" s="19" t="s">
+        <v>527</v>
+      </c>
+      <c r="D60" s="19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="18">
+        <v>24</v>
+      </c>
+      <c r="B61" s="18" t="s">
+        <v>532</v>
+      </c>
+      <c r="C61" s="19" t="s">
+        <v>527</v>
+      </c>
+      <c r="D61" s="19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="18">
+        <v>25</v>
+      </c>
+      <c r="B62" s="18" t="s">
+        <v>533</v>
+      </c>
+      <c r="C62" s="19" t="s">
+        <v>527</v>
+      </c>
+      <c r="D62" s="19" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="18">
+        <v>26</v>
+      </c>
+      <c r="B63" s="18" t="s">
+        <v>534</v>
+      </c>
+      <c r="C63" s="19" t="s">
+        <v>527</v>
+      </c>
+      <c r="D63" s="19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="18">
+        <v>26</v>
+      </c>
+      <c r="B64" s="18" t="s">
+        <v>535</v>
+      </c>
+      <c r="C64" s="19" t="s">
+        <v>527</v>
+      </c>
+      <c r="D64" s="19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1C47090-8ADC-8044-BB8B-C8EC45E053D1}">
+  <dimension ref="A1:C42"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C42" sqref="A39:C42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.83203125" customWidth="1"/>
+    <col min="2" max="2" width="28.1640625" customWidth="1"/>
+    <col min="3" max="3" width="28.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="21">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="18">
+        <v>2</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="21">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="18">
+        <v>4</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="21">
+        <v>5</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="18">
+        <v>6</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="21">
+        <v>7</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="18">
+        <v>8</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="21">
+        <v>9</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="18">
+        <v>10</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="21">
+        <v>11</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="18">
+        <v>12</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="21">
+        <v>13</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="18">
+        <v>14</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="21">
+        <v>15</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="18">
+        <v>16</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="21">
+        <v>17</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="18">
+        <v>18</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="21">
+        <v>19</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="18">
+        <v>20</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="21">
+        <v>21</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="18">
+        <v>22</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="21">
+        <v>23</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="18">
+        <v>24</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="21">
+        <v>25</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="18">
+        <v>26</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="21">
+        <v>27</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="18">
+        <v>28</v>
+      </c>
+      <c r="B28" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="21">
+        <v>29</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="18">
+        <v>30</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="C30" s="20" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="21">
+        <v>31</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="18">
+        <v>32</v>
+      </c>
+      <c r="B32" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="C32" s="19" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="21">
+        <v>33</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="18">
+        <v>34</v>
+      </c>
+      <c r="B34" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="21">
+        <v>35</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="18">
+        <v>36</v>
+      </c>
+      <c r="B36" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="C36" s="20" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="27">
+        <v>1</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C39" s="27" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="35">
+        <v>2</v>
+      </c>
+      <c r="B40" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="C40" s="35" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="27">
+        <v>3</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C41" s="27" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="35">
+        <v>4</v>
+      </c>
+      <c r="B42" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="C42" s="35" t="s">
+        <v>392</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2227BFF2-F963-DB4A-9AF7-613050BBB138}">
+  <dimension ref="A1:D64"/>
+  <sheetViews>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="H49" sqref="H49"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="9.83203125" customWidth="1"/>
+    <col min="3" max="3" width="28.1640625" customWidth="1"/>
+    <col min="4" max="4" width="28.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="21">
+        <v>1</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>528</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>536</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="21">
+        <v>1</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>529</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>536</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="21">
+        <v>2</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>530</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>536</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="21">
+        <v>2</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>531</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>536</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="21">
+        <v>3</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>532</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>536</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="21">
+        <v>3</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>533</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>536</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="21">
+        <v>4</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>534</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>536</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="21">
+        <v>5</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>535</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>536</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="18">
+        <v>6</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>528</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>537</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="18">
+        <v>6</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>529</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>537</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="18">
+        <v>6</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>530</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>537</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="18">
+        <v>6</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>531</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>537</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="18">
+        <v>6</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>532</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>537</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="18">
+        <v>6</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>533</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>537</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="18">
+        <v>6</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>534</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>537</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="18">
+        <v>6</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>535</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>537</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="21">
+        <v>7</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>528</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>538</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="21">
+        <v>7</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>529</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>538</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="21">
+        <v>7</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>530</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>538</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="21">
+        <v>7</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>531</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>538</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="21">
+        <v>7</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>532</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>538</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="21">
+        <v>7</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>533</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>538</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="21">
+        <v>7</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>534</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>538</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="21">
+        <v>7</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>535</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>538</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="18">
+        <v>5</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>528</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>539</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="18">
+        <v>8</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>529</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>539</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="18">
+        <v>8</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>530</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>539</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="18">
+        <v>9</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>531</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>539</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="18">
+        <v>9</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>532</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>539</v>
+      </c>
+      <c r="D29" s="19" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="18">
+        <v>10</v>
+      </c>
+      <c r="B30" s="18" t="s">
+        <v>533</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>539</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="18">
+        <v>10</v>
+      </c>
+      <c r="B31" s="18" t="s">
+        <v>534</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>539</v>
+      </c>
+      <c r="D31" s="19" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="18">
+        <v>11</v>
+      </c>
+      <c r="B32" s="18" t="s">
+        <v>535</v>
+      </c>
+      <c r="C32" s="19" t="s">
+        <v>539</v>
+      </c>
+      <c r="D32" s="19" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="21">
+        <v>11</v>
+      </c>
+      <c r="B33" s="21" t="s">
+        <v>528</v>
+      </c>
+      <c r="C33" s="22" t="s">
+        <v>540</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="21">
+        <v>12</v>
+      </c>
+      <c r="B34" s="21" t="s">
+        <v>529</v>
+      </c>
+      <c r="C34" s="22" t="s">
+        <v>540</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="21">
+        <v>12</v>
+      </c>
+      <c r="B35" s="21" t="s">
+        <v>530</v>
+      </c>
+      <c r="C35" s="22" t="s">
+        <v>540</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="21">
+        <v>13</v>
+      </c>
+      <c r="B36" s="21" t="s">
+        <v>531</v>
+      </c>
+      <c r="C36" s="22" t="s">
+        <v>540</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="21">
+        <v>13</v>
+      </c>
+      <c r="B37" s="21" t="s">
+        <v>532</v>
+      </c>
+      <c r="C37" s="22" t="s">
+        <v>540</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="21">
+        <v>14</v>
+      </c>
+      <c r="B38" s="21" t="s">
+        <v>533</v>
+      </c>
+      <c r="C38" s="22" t="s">
+        <v>540</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="17">
+        <v>14</v>
+      </c>
+      <c r="B39" s="21" t="s">
+        <v>534</v>
+      </c>
+      <c r="C39" s="22" t="s">
+        <v>540</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="17">
+        <v>15</v>
+      </c>
+      <c r="B40" s="21" t="s">
+        <v>535</v>
+      </c>
+      <c r="C40" s="22" t="s">
+        <v>540</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="18">
+        <v>15</v>
+      </c>
+      <c r="B41" s="18" t="s">
+        <v>528</v>
+      </c>
+      <c r="C41" s="19" t="s">
+        <v>541</v>
+      </c>
+      <c r="D41" s="20" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="18">
+        <v>16</v>
+      </c>
+      <c r="B42" s="18" t="s">
+        <v>529</v>
+      </c>
+      <c r="C42" s="19" t="s">
+        <v>541</v>
+      </c>
+      <c r="D42" s="19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="18">
+        <v>17</v>
+      </c>
+      <c r="B43" s="18" t="s">
+        <v>530</v>
+      </c>
+      <c r="C43" s="19" t="s">
+        <v>541</v>
+      </c>
+      <c r="D43" s="19" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="18">
+        <v>17</v>
+      </c>
+      <c r="B44" s="18" t="s">
+        <v>531</v>
+      </c>
+      <c r="C44" s="19" t="s">
+        <v>541</v>
+      </c>
+      <c r="D44" s="19" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="18">
+        <v>18</v>
+      </c>
+      <c r="B45" s="18" t="s">
+        <v>532</v>
+      </c>
+      <c r="C45" s="19" t="s">
+        <v>541</v>
+      </c>
+      <c r="D45" s="19" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="18">
+        <v>18</v>
+      </c>
+      <c r="B46" s="18" t="s">
+        <v>533</v>
+      </c>
+      <c r="C46" s="19" t="s">
+        <v>541</v>
+      </c>
+      <c r="D46" s="19" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="18">
+        <v>19</v>
+      </c>
+      <c r="B47" s="18" t="s">
+        <v>534</v>
+      </c>
+      <c r="C47" s="19" t="s">
+        <v>541</v>
+      </c>
+      <c r="D47" s="19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="18">
+        <v>19</v>
+      </c>
+      <c r="B48" s="18" t="s">
+        <v>535</v>
+      </c>
+      <c r="C48" s="19" t="s">
+        <v>541</v>
+      </c>
+      <c r="D48" s="19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="17">
+        <v>20</v>
+      </c>
+      <c r="B49" s="21" t="s">
+        <v>528</v>
+      </c>
+      <c r="C49" s="22" t="s">
+        <v>542</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="17">
+        <v>20</v>
+      </c>
+      <c r="B50" s="21" t="s">
+        <v>529</v>
+      </c>
+      <c r="C50" s="22" t="s">
+        <v>542</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="17">
+        <v>21</v>
+      </c>
+      <c r="B51" s="21" t="s">
+        <v>530</v>
+      </c>
+      <c r="C51" s="22" t="s">
+        <v>542</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="17">
+        <v>21</v>
+      </c>
+      <c r="B52" s="21" t="s">
+        <v>531</v>
+      </c>
+      <c r="C52" s="22" t="s">
+        <v>542</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="17">
+        <v>22</v>
+      </c>
+      <c r="B53" s="21" t="s">
+        <v>532</v>
+      </c>
+      <c r="C53" s="22" t="s">
+        <v>542</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="17">
+        <v>23</v>
+      </c>
+      <c r="B54" s="21" t="s">
+        <v>533</v>
+      </c>
+      <c r="C54" s="22" t="s">
+        <v>542</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="17">
+        <v>23</v>
+      </c>
+      <c r="B55" s="21" t="s">
+        <v>534</v>
+      </c>
+      <c r="C55" s="22" t="s">
+        <v>542</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="17">
+        <v>24</v>
+      </c>
+      <c r="B56" s="21" t="s">
+        <v>535</v>
+      </c>
+      <c r="C56" s="22" t="s">
+        <v>542</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="18">
+        <v>24</v>
+      </c>
+      <c r="B57" s="18" t="s">
+        <v>528</v>
+      </c>
+      <c r="C57" s="19" t="s">
+        <v>543</v>
+      </c>
+      <c r="D57" s="19" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="18">
+        <v>25</v>
+      </c>
+      <c r="B58" s="18" t="s">
+        <v>529</v>
+      </c>
+      <c r="C58" s="19" t="s">
+        <v>543</v>
+      </c>
+      <c r="D58" s="19" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="18">
+        <v>26</v>
+      </c>
+      <c r="B59" s="18" t="s">
+        <v>530</v>
+      </c>
+      <c r="C59" s="19" t="s">
+        <v>543</v>
+      </c>
+      <c r="D59" s="19" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="18">
+        <v>26</v>
+      </c>
+      <c r="B60" s="18" t="s">
+        <v>531</v>
+      </c>
+      <c r="C60" s="19" t="s">
+        <v>543</v>
+      </c>
+      <c r="D60" s="19" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="18">
+        <v>27</v>
+      </c>
+      <c r="B61" s="18" t="s">
+        <v>532</v>
+      </c>
+      <c r="C61" s="19" t="s">
+        <v>543</v>
+      </c>
+      <c r="D61" s="19" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="18">
+        <v>28</v>
+      </c>
+      <c r="B62" s="18" t="s">
+        <v>533</v>
+      </c>
+      <c r="C62" s="19" t="s">
+        <v>543</v>
+      </c>
+      <c r="D62" s="19" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="18">
+        <v>28</v>
+      </c>
+      <c r="B63" s="18" t="s">
+        <v>534</v>
+      </c>
+      <c r="C63" s="19" t="s">
+        <v>543</v>
+      </c>
+      <c r="D63" s="19" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="18">
+        <v>29</v>
+      </c>
+      <c r="B64" s="18" t="s">
+        <v>535</v>
+      </c>
+      <c r="C64" s="19" t="s">
+        <v>543</v>
+      </c>
+      <c r="D64" s="19" t="s">
+        <v>96</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8173526A-C3A7-B142-B60A-C50F768250AE}">
+  <dimension ref="A1:C42"/>
+  <sheetViews>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39:C42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.83203125" customWidth="1"/>
+    <col min="2" max="2" width="28.1640625" customWidth="1"/>
+    <col min="3" max="3" width="28.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="21">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="18">
+        <v>2</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="21">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="18">
+        <v>4</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="21">
+        <v>5</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="18">
+        <v>6</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="21">
+        <v>7</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="18">
+        <v>8</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="21">
+        <v>9</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="18">
+        <v>10</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="21">
+        <v>11</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="18">
+        <v>12</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="21">
+        <v>13</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="18">
+        <v>14</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="21">
+        <v>15</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="18">
+        <v>16</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="21">
+        <v>17</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="18">
+        <v>18</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="21">
+        <v>19</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="18">
+        <v>20</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="21">
+        <v>21</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="18">
+        <v>22</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="21">
+        <v>23</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="18">
+        <v>24</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="21">
+        <v>25</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="18">
+        <v>26</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="21">
+        <v>27</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="18">
+        <v>28</v>
+      </c>
+      <c r="B28" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="21">
+        <v>29</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="18">
+        <v>30</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="C30" s="20" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="21">
+        <v>31</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="18">
+        <v>32</v>
+      </c>
+      <c r="B32" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="C32" s="20" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="21">
+        <v>33</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="18">
+        <v>34</v>
+      </c>
+      <c r="B34" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="C34" s="20" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="21">
+        <v>35</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="18">
+        <v>36</v>
+      </c>
+      <c r="B36" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="C36" s="20" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="27">
+        <v>1</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C39" s="27" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="35">
+        <v>2</v>
+      </c>
+      <c r="B40" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="C40" s="35" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="27">
+        <v>3</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C41" s="27" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="35">
+        <v>4</v>
+      </c>
+      <c r="B42" s="19" t="s">
+        <v>516</v>
+      </c>
+      <c r="C42" s="35" t="s">
+        <v>515</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AC9610F-2746-D64C-901E-092E85F2C7DE}">
+  <dimension ref="A1:D64"/>
+  <sheetViews>
+    <sheetView topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="D64" sqref="D64"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="9.83203125" customWidth="1"/>
+    <col min="3" max="3" width="28.1640625" customWidth="1"/>
+    <col min="4" max="4" width="28.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="21">
+        <v>1</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>528</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>544</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="21">
+        <v>2</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>529</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>544</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="21">
+        <v>3</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>530</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>544</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="21">
+        <v>3</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>531</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>544</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="21">
+        <v>4</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>532</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>544</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="21">
+        <v>4</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>533</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>544</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="21">
+        <v>5</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>534</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>544</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="21">
+        <v>6</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>535</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>544</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="18">
+        <v>6</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>528</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>545</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="18">
+        <v>7</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>529</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>545</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="18">
+        <v>7</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>530</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>545</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="18">
+        <v>8</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>531</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>545</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="18">
+        <v>9</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>532</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>545</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="18">
+        <v>10</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>533</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>545</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="18">
+        <v>11</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>534</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>545</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="18">
+        <v>12</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>535</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>545</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="21">
+        <v>13</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>528</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>546</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="21">
+        <v>13</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>529</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>546</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="21">
+        <v>14</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>530</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>546</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="21">
+        <v>14</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>531</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>546</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="21">
+        <v>15</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>532</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>546</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="21">
+        <v>15</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>533</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>546</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="21">
+        <v>16</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>534</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>546</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="21">
+        <v>16</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>535</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>546</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="18">
+        <v>17</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>528</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>547</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="18">
+        <v>18</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>529</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>547</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="18">
+        <v>18</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>530</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>547</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="18">
+        <v>19</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>531</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>547</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="18">
+        <v>20</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>532</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>547</v>
+      </c>
+      <c r="D29" s="19" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="18">
+        <v>21</v>
+      </c>
+      <c r="B30" s="18" t="s">
+        <v>533</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>547</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="18">
+        <v>22</v>
+      </c>
+      <c r="B31" s="18" t="s">
+        <v>534</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>547</v>
+      </c>
+      <c r="D31" s="19" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="18">
+        <v>23</v>
+      </c>
+      <c r="B32" s="18" t="s">
+        <v>535</v>
+      </c>
+      <c r="C32" s="19" t="s">
+        <v>547</v>
+      </c>
+      <c r="D32" s="19" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="21">
+        <v>24</v>
+      </c>
+      <c r="B33" s="21" t="s">
+        <v>528</v>
+      </c>
+      <c r="C33" s="22" t="s">
+        <v>548</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="21">
+        <v>25</v>
+      </c>
+      <c r="B34" s="21" t="s">
+        <v>529</v>
+      </c>
+      <c r="C34" s="22" t="s">
+        <v>548</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="21">
+        <v>26</v>
+      </c>
+      <c r="B35" s="21" t="s">
+        <v>530</v>
+      </c>
+      <c r="C35" s="22" t="s">
+        <v>548</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="21">
+        <v>27</v>
+      </c>
+      <c r="B36" s="21" t="s">
+        <v>531</v>
+      </c>
+      <c r="C36" s="22" t="s">
+        <v>548</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="21">
+        <v>28</v>
+      </c>
+      <c r="B37" s="21" t="s">
+        <v>532</v>
+      </c>
+      <c r="C37" s="22" t="s">
+        <v>548</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="21">
+        <v>28</v>
+      </c>
+      <c r="B38" s="21" t="s">
+        <v>533</v>
+      </c>
+      <c r="C38" s="22" t="s">
+        <v>548</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="17">
+        <v>29</v>
+      </c>
+      <c r="B39" s="21" t="s">
+        <v>534</v>
+      </c>
+      <c r="C39" s="22" t="s">
+        <v>548</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="17">
+        <v>30</v>
+      </c>
+      <c r="B40" s="21" t="s">
+        <v>535</v>
+      </c>
+      <c r="C40" s="22" t="s">
+        <v>548</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="18">
+        <v>31</v>
+      </c>
+      <c r="B41" s="18" t="s">
+        <v>528</v>
+      </c>
+      <c r="C41" s="19" t="s">
+        <v>549</v>
+      </c>
+      <c r="D41" s="19" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="18">
+        <v>31</v>
+      </c>
+      <c r="B42" s="18" t="s">
+        <v>529</v>
+      </c>
+      <c r="C42" s="19" t="s">
+        <v>549</v>
+      </c>
+      <c r="D42" s="19" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="18">
+        <v>32</v>
+      </c>
+      <c r="B43" s="18" t="s">
+        <v>530</v>
+      </c>
+      <c r="C43" s="19" t="s">
+        <v>549</v>
+      </c>
+      <c r="D43" s="19" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="18">
+        <v>32</v>
+      </c>
+      <c r="B44" s="18" t="s">
+        <v>531</v>
+      </c>
+      <c r="C44" s="19" t="s">
+        <v>549</v>
+      </c>
+      <c r="D44" s="19" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="18">
+        <v>33</v>
+      </c>
+      <c r="B45" s="18" t="s">
+        <v>532</v>
+      </c>
+      <c r="C45" s="19" t="s">
+        <v>549</v>
+      </c>
+      <c r="D45" s="19" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="18">
+        <v>34</v>
+      </c>
+      <c r="B46" s="18" t="s">
+        <v>533</v>
+      </c>
+      <c r="C46" s="19" t="s">
+        <v>549</v>
+      </c>
+      <c r="D46" s="19" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="18">
+        <v>34</v>
+      </c>
+      <c r="B47" s="18" t="s">
+        <v>534</v>
+      </c>
+      <c r="C47" s="19" t="s">
+        <v>549</v>
+      </c>
+      <c r="D47" s="19" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="18">
+        <v>35</v>
+      </c>
+      <c r="B48" s="18" t="s">
+        <v>535</v>
+      </c>
+      <c r="C48" s="19" t="s">
+        <v>549</v>
+      </c>
+      <c r="D48" s="19" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="17">
+        <v>35</v>
+      </c>
+      <c r="B49" s="21" t="s">
+        <v>528</v>
+      </c>
+      <c r="C49" s="22" t="s">
+        <v>550</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="17">
+        <v>36</v>
+      </c>
+      <c r="B50" s="21" t="s">
+        <v>529</v>
+      </c>
+      <c r="C50" s="22" t="s">
+        <v>550</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="17">
+        <v>37</v>
+      </c>
+      <c r="B51" s="21" t="s">
+        <v>530</v>
+      </c>
+      <c r="C51" s="22" t="s">
+        <v>550</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="17">
+        <v>37</v>
+      </c>
+      <c r="B52" s="21" t="s">
+        <v>531</v>
+      </c>
+      <c r="C52" s="22" t="s">
+        <v>550</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="17">
+        <v>38</v>
+      </c>
+      <c r="B53" s="21" t="s">
+        <v>532</v>
+      </c>
+      <c r="C53" s="22" t="s">
+        <v>550</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="17">
+        <v>39</v>
+      </c>
+      <c r="B54" s="21" t="s">
+        <v>533</v>
+      </c>
+      <c r="C54" s="22" t="s">
+        <v>550</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="17">
+        <v>39</v>
+      </c>
+      <c r="B55" s="21" t="s">
+        <v>534</v>
+      </c>
+      <c r="C55" s="22" t="s">
+        <v>550</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="17">
+        <v>40</v>
+      </c>
+      <c r="B56" s="21" t="s">
+        <v>535</v>
+      </c>
+      <c r="C56" s="22" t="s">
+        <v>550</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="18">
+        <v>40</v>
+      </c>
+      <c r="B57" s="18" t="s">
+        <v>528</v>
+      </c>
+      <c r="C57" s="19" t="s">
+        <v>551</v>
+      </c>
+      <c r="D57" s="20" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="18">
+        <v>41</v>
+      </c>
+      <c r="B58" s="18" t="s">
+        <v>529</v>
+      </c>
+      <c r="C58" s="19" t="s">
+        <v>551</v>
+      </c>
+      <c r="D58" s="19" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="18">
+        <v>41</v>
+      </c>
+      <c r="B59" s="18" t="s">
+        <v>530</v>
+      </c>
+      <c r="C59" s="19" t="s">
+        <v>551</v>
+      </c>
+      <c r="D59" s="19" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="18">
+        <v>42</v>
+      </c>
+      <c r="B60" s="18" t="s">
+        <v>531</v>
+      </c>
+      <c r="C60" s="19" t="s">
+        <v>551</v>
+      </c>
+      <c r="D60" s="19" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="18">
+        <v>42</v>
+      </c>
+      <c r="B61" s="18" t="s">
+        <v>532</v>
+      </c>
+      <c r="C61" s="19" t="s">
+        <v>551</v>
+      </c>
+      <c r="D61" s="19" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="18">
+        <v>43</v>
+      </c>
+      <c r="B62" s="18" t="s">
+        <v>533</v>
+      </c>
+      <c r="C62" s="19" t="s">
+        <v>551</v>
+      </c>
+      <c r="D62" s="19" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="18">
+        <v>43</v>
+      </c>
+      <c r="B63" s="18" t="s">
+        <v>534</v>
+      </c>
+      <c r="C63" s="19" t="s">
+        <v>551</v>
+      </c>
+      <c r="D63" s="19" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="18">
+        <v>44</v>
+      </c>
+      <c r="B64" s="18" t="s">
+        <v>535</v>
+      </c>
+      <c r="C64" s="19" t="s">
+        <v>551</v>
+      </c>
+      <c r="D64" s="19" t="s">
+        <v>121</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45398C3F-C03F-9D4A-AFB2-D8BBD2143343}">
+  <dimension ref="A1:C44"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.83203125" customWidth="1"/>
+    <col min="2" max="2" width="28.1640625" customWidth="1"/>
+    <col min="3" max="3" width="28.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="21">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="18">
+        <v>2</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="21">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="18">
+        <v>4</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="21">
+        <v>5</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="18">
+        <v>6</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="21">
+        <v>7</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="18">
+        <v>8</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="18">
+        <v>8</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="21">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="18">
+        <v>10</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="21">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="18">
+        <v>12</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="21">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="18">
+        <v>14</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="21">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="25">
+        <v>16</v>
+      </c>
+      <c r="B17" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="21">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="18">
+        <v>18</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>495</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="18">
+        <v>18</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>495</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="18">
+        <v>18</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>495</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="18">
+        <v>18</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>495</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="21">
+        <v>19</v>
+      </c>
+      <c r="B23" s="22" t="s">
+        <v>500</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="21">
+        <v>19</v>
+      </c>
+      <c r="B24" s="22" t="s">
+        <v>500</v>
+      </c>
+      <c r="C24" s="23" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="21">
+        <v>19</v>
+      </c>
+      <c r="B25" s="22" t="s">
+        <v>500</v>
+      </c>
+      <c r="C25" s="23" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="21">
+        <v>20</v>
+      </c>
+      <c r="B26" s="22" t="s">
+        <v>504</v>
+      </c>
+      <c r="C26" s="23" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="21">
+        <v>20</v>
+      </c>
+      <c r="B27" s="22" t="s">
+        <v>504</v>
+      </c>
+      <c r="C27" s="23" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="21"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="21"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="23"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="33" t="s">
+        <v>508</v>
+      </c>
+      <c r="B30" s="34"/>
+      <c r="C30" s="34"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="21"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="23"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="21"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="19" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="21"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="19" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="21"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="19" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="21"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="32" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="21"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="32" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="27"/>
+      <c r="B37" s="27"/>
+      <c r="C37" s="32" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="27"/>
+      <c r="B38" s="27"/>
+      <c r="C38" s="32" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="27">
+        <v>1</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="C41" s="27" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="35">
+        <v>2</v>
+      </c>
+      <c r="B42" s="19" t="s">
+        <v>517</v>
+      </c>
+      <c r="C42" s="35" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="27">
+        <v>3</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="C43" s="27" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="35">
+        <v>4</v>
+      </c>
+      <c r="B44" s="19" t="s">
+        <v>519</v>
+      </c>
+      <c r="C44" s="35" t="s">
+        <v>519</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A30:C30"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4293E66-1BB4-DE4B-916B-3301AD01257C}">
+  <dimension ref="A1:D64"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="F64" sqref="F64"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="9.83203125" customWidth="1"/>
+    <col min="3" max="3" width="28.1640625" customWidth="1"/>
+    <col min="4" max="4" width="28.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="21">
+        <v>44</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>528</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>552</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="21">
+        <v>1</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>529</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>552</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="21">
+        <v>2</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>530</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>552</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="21">
+        <v>3</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>531</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>552</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="21">
+        <v>3</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>532</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>552</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="21"/>
+      <c r="B6" s="21" t="s">
+        <v>533</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>552</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="21"/>
+      <c r="B7" s="21" t="s">
+        <v>534</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>552</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="21"/>
+      <c r="B8" s="21" t="s">
+        <v>535</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>552</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="18"/>
+      <c r="B9" s="18" t="s">
+        <v>528</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>553</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="18"/>
+      <c r="B10" s="18" t="s">
+        <v>529</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>553</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="18"/>
+      <c r="B11" s="18" t="s">
+        <v>530</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>553</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="18"/>
+      <c r="B12" s="18" t="s">
+        <v>531</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>553</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="18"/>
+      <c r="B13" s="18" t="s">
+        <v>532</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>553</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="18"/>
+      <c r="B14" s="18" t="s">
+        <v>533</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>553</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="18"/>
+      <c r="B15" s="18" t="s">
+        <v>534</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>553</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="18"/>
+      <c r="B16" s="18" t="s">
+        <v>535</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>553</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="21"/>
+      <c r="B17" s="21" t="s">
+        <v>528</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>554</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="21"/>
+      <c r="B18" s="21" t="s">
+        <v>529</v>
+      </c>
+      <c r="C18" s="36" t="s">
+        <v>554</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="21"/>
+      <c r="B19" s="21" t="s">
+        <v>530</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>554</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="21"/>
+      <c r="B20" s="21" t="s">
+        <v>531</v>
+      </c>
+      <c r="C20" s="36" t="s">
+        <v>554</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="21"/>
+      <c r="B21" s="21" t="s">
+        <v>532</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>554</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="21"/>
+      <c r="B22" s="21" t="s">
+        <v>533</v>
+      </c>
+      <c r="C22" s="36" t="s">
+        <v>554</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="21"/>
+      <c r="B23" s="21" t="s">
+        <v>534</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>554</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="21"/>
+      <c r="B24" s="21" t="s">
+        <v>535</v>
+      </c>
+      <c r="C24" s="36" t="s">
+        <v>554</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="18"/>
+      <c r="B25" s="18" t="s">
+        <v>528</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>555</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="18"/>
+      <c r="B26" s="18" t="s">
+        <v>529</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>555</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="18"/>
+      <c r="B27" s="18" t="s">
+        <v>530</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>555</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="18"/>
+      <c r="B28" s="18" t="s">
+        <v>531</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>555</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="18"/>
+      <c r="B29" s="18" t="s">
+        <v>532</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>555</v>
+      </c>
+      <c r="D29" s="19" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="18"/>
+      <c r="B30" s="18" t="s">
+        <v>533</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>555</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="18"/>
+      <c r="B31" s="18" t="s">
+        <v>534</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>555</v>
+      </c>
+      <c r="D31" s="19" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="18"/>
+      <c r="B32" s="18" t="s">
+        <v>535</v>
+      </c>
+      <c r="C32" s="19" t="s">
+        <v>555</v>
+      </c>
+      <c r="D32" s="19" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="21"/>
+      <c r="B33" s="21" t="s">
+        <v>528</v>
+      </c>
+      <c r="C33" s="22" t="s">
+        <v>556</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="21"/>
+      <c r="B34" s="21" t="s">
+        <v>529</v>
+      </c>
+      <c r="C34" s="22" t="s">
+        <v>556</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="21"/>
+      <c r="B35" s="21" t="s">
+        <v>530</v>
+      </c>
+      <c r="C35" s="22" t="s">
+        <v>556</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="21"/>
+      <c r="B36" s="21" t="s">
+        <v>531</v>
+      </c>
+      <c r="C36" s="22" t="s">
+        <v>556</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="21"/>
+      <c r="B37" s="21" t="s">
+        <v>532</v>
+      </c>
+      <c r="C37" s="22" t="s">
+        <v>556</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="21"/>
+      <c r="B38" s="21" t="s">
+        <v>533</v>
+      </c>
+      <c r="C38" s="22" t="s">
+        <v>556</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="17"/>
+      <c r="B39" s="21" t="s">
+        <v>534</v>
+      </c>
+      <c r="C39" s="22" t="s">
+        <v>556</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="17"/>
+      <c r="B40" s="21" t="s">
+        <v>535</v>
+      </c>
+      <c r="C40" s="22" t="s">
+        <v>556</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="18"/>
+      <c r="B41" s="18" t="s">
+        <v>528</v>
+      </c>
+      <c r="C41" s="19" t="s">
+        <v>557</v>
+      </c>
+      <c r="D41" s="19" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="18"/>
+      <c r="B42" s="18" t="s">
+        <v>529</v>
+      </c>
+      <c r="C42" s="19" t="s">
+        <v>557</v>
+      </c>
+      <c r="D42" s="19" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="18"/>
+      <c r="B43" s="18" t="s">
+        <v>530</v>
+      </c>
+      <c r="C43" s="19" t="s">
+        <v>557</v>
+      </c>
+      <c r="D43" s="19" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="18"/>
+      <c r="B44" s="18" t="s">
+        <v>531</v>
+      </c>
+      <c r="C44" s="19" t="s">
+        <v>557</v>
+      </c>
+      <c r="D44" s="19" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="18"/>
+      <c r="B45" s="18" t="s">
+        <v>532</v>
+      </c>
+      <c r="C45" s="19" t="s">
+        <v>557</v>
+      </c>
+      <c r="D45" s="19" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="18"/>
+      <c r="B46" s="18" t="s">
+        <v>533</v>
+      </c>
+      <c r="C46" s="19" t="s">
+        <v>557</v>
+      </c>
+      <c r="D46" s="19" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="18"/>
+      <c r="B47" s="18" t="s">
+        <v>534</v>
+      </c>
+      <c r="C47" s="19" t="s">
+        <v>557</v>
+      </c>
+      <c r="D47" s="19" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="18"/>
+      <c r="B48" s="18" t="s">
+        <v>535</v>
+      </c>
+      <c r="C48" s="19" t="s">
+        <v>557</v>
+      </c>
+      <c r="D48" s="19" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="17"/>
+      <c r="B49" s="21" t="s">
+        <v>528</v>
+      </c>
+      <c r="C49" s="22" t="s">
+        <v>558</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="17"/>
+      <c r="B50" s="21" t="s">
+        <v>529</v>
+      </c>
+      <c r="C50" s="22" t="s">
+        <v>558</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="17"/>
+      <c r="B51" s="21" t="s">
+        <v>530</v>
+      </c>
+      <c r="C51" s="22" t="s">
+        <v>558</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="17"/>
+      <c r="B52" s="21" t="s">
+        <v>531</v>
+      </c>
+      <c r="C52" s="22" t="s">
+        <v>558</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="17"/>
+      <c r="B53" s="21" t="s">
+        <v>532</v>
+      </c>
+      <c r="C53" s="22" t="s">
+        <v>558</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="17"/>
+      <c r="B54" s="21" t="s">
+        <v>533</v>
+      </c>
+      <c r="C54" s="22" t="s">
+        <v>558</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="17"/>
+      <c r="B55" s="21" t="s">
+        <v>534</v>
+      </c>
+      <c r="C55" s="22" t="s">
+        <v>558</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="17"/>
+      <c r="B56" s="21" t="s">
+        <v>535</v>
+      </c>
+      <c r="C56" s="22" t="s">
+        <v>558</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="18"/>
+      <c r="B57" s="18" t="s">
+        <v>528</v>
+      </c>
+      <c r="C57" s="19" t="s">
+        <v>559</v>
+      </c>
+      <c r="D57" s="19" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="18"/>
+      <c r="B58" s="18" t="s">
+        <v>529</v>
+      </c>
+      <c r="C58" s="19" t="s">
+        <v>559</v>
+      </c>
+      <c r="D58" s="19" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="18"/>
+      <c r="B59" s="18" t="s">
+        <v>530</v>
+      </c>
+      <c r="C59" s="19" t="s">
+        <v>559</v>
+      </c>
+      <c r="D59" s="19" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="18"/>
+      <c r="B60" s="18" t="s">
+        <v>531</v>
+      </c>
+      <c r="C60" s="19" t="s">
+        <v>559</v>
+      </c>
+      <c r="D60" s="19" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="18"/>
+      <c r="B61" s="18" t="s">
+        <v>532</v>
+      </c>
+      <c r="C61" s="19" t="s">
+        <v>559</v>
+      </c>
+      <c r="D61" s="19" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="18"/>
+      <c r="B62" s="18" t="s">
+        <v>533</v>
+      </c>
+      <c r="C62" s="19" t="s">
+        <v>559</v>
+      </c>
+      <c r="D62" s="19" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="18"/>
+      <c r="B63" s="18" t="s">
+        <v>534</v>
+      </c>
+      <c r="C63" s="19" t="s">
+        <v>559</v>
+      </c>
+      <c r="D63" s="19" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="18"/>
+      <c r="B64" s="18" t="s">
+        <v>535</v>
+      </c>
+      <c r="C64" s="19" t="s">
+        <v>559</v>
+      </c>
+      <c r="D64" s="19" t="s">
+        <v>567</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9DEBD29-8788-F44D-9C08-C1770062EB01}">
   <dimension ref="A1:N27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3861,10 +9605,10 @@
     </row>
     <row r="15" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K15" s="5"/>
-      <c r="L15" s="17" t="s">
+      <c r="L15" s="28" t="s">
         <v>157</v>
       </c>
-      <c r="M15" s="17"/>
+      <c r="M15" s="28"/>
       <c r="N15" s="3">
         <f>SUMIF(M2:M13,"Digital",N2:N13)</f>
         <v>7</v>
@@ -3872,10 +9616,10 @@
     </row>
     <row r="16" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K16" s="5"/>
-      <c r="L16" s="17" t="s">
+      <c r="L16" s="28" t="s">
         <v>158</v>
       </c>
-      <c r="M16" s="17"/>
+      <c r="M16" s="28"/>
       <c r="N16" s="3">
         <f>COUNTIF(M2:M13,"Analógico")</f>
         <v>5</v>
@@ -3883,10 +9627,10 @@
     </row>
     <row r="17" spans="11:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K17" s="5"/>
-      <c r="L17" s="17" t="s">
+      <c r="L17" s="28" t="s">
         <v>159</v>
       </c>
-      <c r="M17" s="17"/>
+      <c r="M17" s="28"/>
       <c r="N17" s="3">
         <f>SUM(F2:F13)</f>
         <v>13</v>
@@ -3894,10 +9638,10 @@
     </row>
     <row r="18" spans="11:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K18" s="5"/>
-      <c r="L18" s="17" t="s">
+      <c r="L18" s="28" t="s">
         <v>172</v>
       </c>
-      <c r="M18" s="17"/>
+      <c r="M18" s="28"/>
       <c r="N18" s="3">
         <f>COUNTIF(H2:J13, "Azul")</f>
         <v>1</v>
@@ -3905,10 +9649,10 @@
     </row>
     <row r="19" spans="11:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K19" s="5"/>
-      <c r="L19" s="17" t="s">
+      <c r="L19" s="28" t="s">
         <v>173</v>
       </c>
-      <c r="M19" s="17"/>
+      <c r="M19" s="28"/>
       <c r="N19" s="3">
         <f>COUNTIF(H2:J13, "Laranja")</f>
         <v>6</v>
@@ -3916,10 +9660,10 @@
     </row>
     <row r="20" spans="11:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K20" s="5"/>
-      <c r="L20" s="17" t="s">
+      <c r="L20" s="28" t="s">
         <v>174</v>
       </c>
-      <c r="M20" s="17"/>
+      <c r="M20" s="28"/>
       <c r="N20" s="3">
         <f>COUNTIF(H2:J13, "Branco")</f>
         <v>6</v>
@@ -3927,10 +9671,10 @@
     </row>
     <row r="21" spans="11:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K21" s="5"/>
-      <c r="L21" s="17" t="s">
+      <c r="L21" s="28" t="s">
         <v>176</v>
       </c>
-      <c r="M21" s="17"/>
+      <c r="M21" s="28"/>
       <c r="N21" s="3">
         <f>SUM(N18:N20)</f>
         <v>13</v>
@@ -3979,8 +9723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07EEFD8C-F694-424A-B9CC-FACF813563A5}">
   <dimension ref="A1:N27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD12"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4610,10 +10354,10 @@
     </row>
     <row r="16" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K16" s="5"/>
-      <c r="L16" s="18" t="s">
+      <c r="L16" s="29" t="s">
         <v>157</v>
       </c>
-      <c r="M16" s="19"/>
+      <c r="M16" s="30"/>
       <c r="N16" s="7">
         <f>SUMIF(M1:M14,"Digital",N1:N14)</f>
         <v>17</v>
@@ -4621,10 +10365,10 @@
     </row>
     <row r="17" spans="11:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K17" s="5"/>
-      <c r="L17" s="18" t="s">
+      <c r="L17" s="29" t="s">
         <v>158</v>
       </c>
-      <c r="M17" s="19"/>
+      <c r="M17" s="30"/>
       <c r="N17" s="7">
         <f>COUNTIF(M1:M14,"Analógico")</f>
         <v>0</v>
@@ -4632,10 +10376,10 @@
     </row>
     <row r="18" spans="11:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K18" s="5"/>
-      <c r="L18" s="18" t="s">
+      <c r="L18" s="29" t="s">
         <v>159</v>
       </c>
-      <c r="M18" s="19"/>
+      <c r="M18" s="30"/>
       <c r="N18" s="7">
         <f>SUM(F1:F14)</f>
         <v>67</v>
@@ -4643,10 +10387,10 @@
     </row>
     <row r="19" spans="11:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K19" s="5"/>
-      <c r="L19" s="17" t="s">
+      <c r="L19" s="28" t="s">
         <v>173</v>
       </c>
-      <c r="M19" s="17"/>
+      <c r="M19" s="28"/>
       <c r="N19" s="3">
         <f>COUNTIF(H2:J14, "Laranja")</f>
         <v>9</v>
@@ -4654,10 +10398,10 @@
     </row>
     <row r="20" spans="11:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K20" s="5"/>
-      <c r="L20" s="17" t="s">
+      <c r="L20" s="28" t="s">
         <v>174</v>
       </c>
-      <c r="M20" s="17"/>
+      <c r="M20" s="28"/>
       <c r="N20" s="3">
         <f>COUNTIF(H2:J14, "Branco")</f>
         <v>9</v>
@@ -4665,10 +10409,10 @@
     </row>
     <row r="21" spans="11:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K21" s="5"/>
-      <c r="L21" s="17" t="s">
+      <c r="L21" s="28" t="s">
         <v>175</v>
       </c>
-      <c r="M21" s="17"/>
+      <c r="M21" s="28"/>
       <c r="N21" s="3">
         <f>COUNTIF(H2:J14, "Verde")</f>
         <v>1</v>
@@ -4676,10 +10420,10 @@
     </row>
     <row r="22" spans="11:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K22" s="5"/>
-      <c r="L22" s="17" t="s">
+      <c r="L22" s="28" t="s">
         <v>176</v>
       </c>
-      <c r="M22" s="17"/>
+      <c r="M22" s="28"/>
       <c r="N22" s="3">
         <f>SUM(N19:N21)</f>
         <v>19</v>
@@ -4725,7 +10469,7 @@
   <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5140,10 +10884,10 @@
     </row>
     <row r="11" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K11" s="5"/>
-      <c r="L11" s="17" t="s">
+      <c r="L11" s="28" t="s">
         <v>157</v>
       </c>
-      <c r="M11" s="17"/>
+      <c r="M11" s="28"/>
       <c r="N11" s="3">
         <f>SUMIF(M2:M9,"Digital",N2:N9)</f>
         <v>8</v>
@@ -5151,10 +10895,10 @@
     </row>
     <row r="12" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K12" s="5"/>
-      <c r="L12" s="17" t="s">
+      <c r="L12" s="28" t="s">
         <v>158</v>
       </c>
-      <c r="M12" s="17"/>
+      <c r="M12" s="28"/>
       <c r="N12" s="3">
         <f>COUNTIF(M2:M9,"Analógico")</f>
         <v>0</v>
@@ -5162,10 +10906,10 @@
     </row>
     <row r="13" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K13" s="5"/>
-      <c r="L13" s="17" t="s">
+      <c r="L13" s="28" t="s">
         <v>159</v>
       </c>
-      <c r="M13" s="17"/>
+      <c r="M13" s="28"/>
       <c r="N13" s="3">
         <f>SUM(F2:F9)</f>
         <v>16</v>
@@ -5173,10 +10917,10 @@
     </row>
     <row r="14" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K14" s="5"/>
-      <c r="L14" s="17" t="s">
+      <c r="L14" s="28" t="s">
         <v>173</v>
       </c>
-      <c r="M14" s="17"/>
+      <c r="M14" s="28"/>
       <c r="N14" s="3">
         <f>COUNTIF(H2:J9, "Laranja")</f>
         <v>7</v>
@@ -5184,10 +10928,10 @@
     </row>
     <row r="15" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K15" s="5"/>
-      <c r="L15" s="17" t="s">
+      <c r="L15" s="28" t="s">
         <v>174</v>
       </c>
-      <c r="M15" s="17"/>
+      <c r="M15" s="28"/>
       <c r="N15" s="3">
         <f>COUNTIF(H2:J9, "Branco")</f>
         <v>8</v>
@@ -5195,10 +10939,10 @@
     </row>
     <row r="16" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K16" s="5"/>
-      <c r="L16" s="17" t="s">
+      <c r="L16" s="28" t="s">
         <v>175</v>
       </c>
-      <c r="M16" s="17"/>
+      <c r="M16" s="28"/>
       <c r="N16" s="3">
         <f>COUNTIF(H2:J9, "Verde")</f>
         <v>1</v>
@@ -5206,10 +10950,10 @@
     </row>
     <row r="17" spans="11:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K17" s="5"/>
-      <c r="L17" s="17" t="s">
+      <c r="L17" s="28" t="s">
         <v>176</v>
       </c>
-      <c r="M17" s="17"/>
+      <c r="M17" s="28"/>
       <c r="N17" s="3">
         <f>SUM(N14:N16)</f>
         <v>16</v>
@@ -5279,7 +11023,7 @@
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5606,10 +11350,10 @@
     </row>
     <row r="9" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K9" s="5"/>
-      <c r="L9" s="17" t="s">
+      <c r="L9" s="28" t="s">
         <v>157</v>
       </c>
-      <c r="M9" s="17"/>
+      <c r="M9" s="28"/>
       <c r="N9" s="3">
         <f>SUMIF(M2:M7,"Digital",N2:N7)</f>
         <v>6</v>
@@ -5617,10 +11361,10 @@
     </row>
     <row r="10" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K10" s="5"/>
-      <c r="L10" s="17" t="s">
+      <c r="L10" s="28" t="s">
         <v>158</v>
       </c>
-      <c r="M10" s="17"/>
+      <c r="M10" s="28"/>
       <c r="N10" s="3">
         <f>COUNTIF(M2:M7,"Analógico")</f>
         <v>0</v>
@@ -5628,10 +11372,10 @@
     </row>
     <row r="11" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K11" s="5"/>
-      <c r="L11" s="17" t="s">
+      <c r="L11" s="28" t="s">
         <v>159</v>
       </c>
-      <c r="M11" s="17"/>
+      <c r="M11" s="28"/>
       <c r="N11" s="3">
         <f>SUM(F2:F7)</f>
         <v>11</v>
@@ -5639,10 +11383,10 @@
     </row>
     <row r="12" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K12" s="5"/>
-      <c r="L12" s="17" t="s">
+      <c r="L12" s="28" t="s">
         <v>173</v>
       </c>
-      <c r="M12" s="17"/>
+      <c r="M12" s="28"/>
       <c r="N12" s="3">
         <f>COUNTIF(H2:J7, "Laranja")</f>
         <v>5</v>
@@ -5650,10 +11394,10 @@
     </row>
     <row r="13" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K13" s="5"/>
-      <c r="L13" s="17" t="s">
+      <c r="L13" s="28" t="s">
         <v>174</v>
       </c>
-      <c r="M13" s="17"/>
+      <c r="M13" s="28"/>
       <c r="N13" s="3">
         <f>COUNTIF(H2:J7, "Branco")</f>
         <v>6</v>
@@ -5661,10 +11405,10 @@
     </row>
     <row r="14" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K14" s="5"/>
-      <c r="L14" s="17" t="s">
+      <c r="L14" s="28" t="s">
         <v>176</v>
       </c>
-      <c r="M14" s="17"/>
+      <c r="M14" s="28"/>
       <c r="N14" s="3">
         <f>SUM(N12:N13)</f>
         <v>11</v>
@@ -5717,7 +11461,7 @@
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6266,10 +12010,10 @@
     </row>
     <row r="14" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K14" s="5"/>
-      <c r="L14" s="17" t="s">
+      <c r="L14" s="28" t="s">
         <v>157</v>
       </c>
-      <c r="M14" s="17"/>
+      <c r="M14" s="28"/>
       <c r="N14" s="3">
         <f>SUMIF(M2:M12,"Digital",N2:N12)</f>
         <v>11</v>
@@ -6277,10 +12021,10 @@
     </row>
     <row r="15" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K15" s="5"/>
-      <c r="L15" s="17" t="s">
+      <c r="L15" s="28" t="s">
         <v>158</v>
       </c>
-      <c r="M15" s="17"/>
+      <c r="M15" s="28"/>
       <c r="N15" s="3">
         <f>COUNTIF(M2:M12,"Analógico")</f>
         <v>0</v>
@@ -6288,10 +12032,10 @@
     </row>
     <row r="16" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K16" s="5"/>
-      <c r="L16" s="17" t="s">
+      <c r="L16" s="28" t="s">
         <v>159</v>
       </c>
-      <c r="M16" s="17"/>
+      <c r="M16" s="28"/>
       <c r="N16" s="3">
         <f>SUM(F2:F12)</f>
         <v>37</v>
@@ -6299,10 +12043,10 @@
     </row>
     <row r="17" spans="11:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K17" s="5"/>
-      <c r="L17" s="17" t="s">
+      <c r="L17" s="28" t="s">
         <v>173</v>
       </c>
-      <c r="M17" s="17"/>
+      <c r="M17" s="28"/>
       <c r="N17" s="3">
         <f>COUNTIF(H2:J12, "Laranja")</f>
         <v>5</v>
@@ -6310,10 +12054,10 @@
     </row>
     <row r="18" spans="11:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K18" s="5"/>
-      <c r="L18" s="17" t="s">
+      <c r="L18" s="28" t="s">
         <v>174</v>
       </c>
-      <c r="M18" s="17"/>
+      <c r="M18" s="28"/>
       <c r="N18" s="3">
         <f>COUNTIF(H2:J12,"Branco")</f>
         <v>8</v>
@@ -6321,10 +12065,10 @@
     </row>
     <row r="19" spans="11:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K19" s="5"/>
-      <c r="L19" s="17" t="s">
+      <c r="L19" s="28" t="s">
         <v>177</v>
       </c>
-      <c r="M19" s="17"/>
+      <c r="M19" s="28"/>
       <c r="N19" s="3">
         <f>SUM(F4,F6,F10)</f>
         <v>24</v>
@@ -6332,10 +12076,10 @@
     </row>
     <row r="20" spans="11:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K20" s="5"/>
-      <c r="L20" s="17" t="s">
+      <c r="L20" s="28" t="s">
         <v>176</v>
       </c>
-      <c r="M20" s="17"/>
+      <c r="M20" s="28"/>
       <c r="N20" s="3">
         <f>SUM(N17:N19)</f>
         <v>37</v>
@@ -6365,8 +12109,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6A8311B-BC3A-8F4D-B9F7-CE9652DAFDD3}">
   <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6467,47 +12211,47 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="23" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="21">
+    <row r="3" spans="1:14" s="24" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="22">
         <v>2</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="23" t="s">
         <v>350</v>
       </c>
-      <c r="E3" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" s="21">
-        <v>1</v>
-      </c>
-      <c r="G3" s="22" t="s">
+      <c r="E3" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="22">
+        <v>1</v>
+      </c>
+      <c r="G3" s="23" t="s">
         <v>367</v>
       </c>
-      <c r="H3" s="21" t="s">
+      <c r="H3" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="I3" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="K3" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="L3" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="M3" s="21" t="s">
+      <c r="I3" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="N3" s="21">
+      <c r="N3" s="22">
         <v>1</v>
       </c>
     </row>
@@ -7218,80 +12962,80 @@
     <row r="20" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K21" s="5"/>
-      <c r="L21" s="17" t="s">
+      <c r="L21" s="28" t="s">
         <v>157</v>
       </c>
-      <c r="M21" s="17"/>
+      <c r="M21" s="28"/>
       <c r="N21" s="3">
         <f>SUMIF(M2:M19,"Digital",N2:N19)</f>
         <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="L22" s="17" t="s">
+      <c r="L22" s="28" t="s">
         <v>158</v>
       </c>
-      <c r="M22" s="17"/>
+      <c r="M22" s="28"/>
       <c r="N22" s="3">
         <f>COUNTIF(M2:M19,"Analógico")</f>
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="L23" s="17" t="s">
+      <c r="L23" s="28" t="s">
         <v>159</v>
       </c>
-      <c r="M23" s="17"/>
+      <c r="M23" s="28"/>
       <c r="N23" s="3">
         <f>SUM(F2:F19)</f>
         <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="L24" s="17" t="s">
+      <c r="L24" s="28" t="s">
         <v>173</v>
       </c>
-      <c r="M24" s="17"/>
+      <c r="M24" s="28"/>
       <c r="N24" s="3">
         <f>COUNTIF(H2:J19, "Laranja")</f>
         <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="L25" s="17" t="s">
+      <c r="L25" s="28" t="s">
         <v>174</v>
       </c>
-      <c r="M25" s="17"/>
+      <c r="M25" s="28"/>
       <c r="N25" s="3">
         <f>COUNTIF(H2:J19, "Branco")</f>
         <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="L26" s="17" t="s">
+      <c r="L26" s="28" t="s">
         <v>172</v>
       </c>
-      <c r="M26" s="17"/>
+      <c r="M26" s="28"/>
       <c r="N26" s="3">
         <f>COUNTIF(H1:J19, "Azul")</f>
         <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="L27" s="17" t="s">
+      <c r="L27" s="28" t="s">
         <v>177</v>
       </c>
-      <c r="M27" s="17"/>
+      <c r="M27" s="28"/>
       <c r="N27" s="3">
         <f>COUNTIF(H2:J19, "Vermelho")</f>
         <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="L28" s="17" t="s">
+      <c r="L28" s="28" t="s">
         <v>176</v>
       </c>
-      <c r="M28" s="17"/>
+      <c r="M28" s="28"/>
       <c r="N28" s="3">
         <f>SUM(N24:N27)</f>
         <v>25</v>
@@ -7321,8 +13065,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0A6DF2C-3775-D446-9E27-494AE75ABACB}">
   <dimension ref="A1:N46"/>
   <sheetViews>
-    <sheetView topLeftCell="D26" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37:XFD37"/>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8967,80 +14711,80 @@
       <c r="B38" s="9"/>
     </row>
     <row r="39" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="L39" s="17" t="s">
+      <c r="L39" s="28" t="s">
         <v>157</v>
       </c>
-      <c r="M39" s="17"/>
+      <c r="M39" s="28"/>
       <c r="N39" s="3">
         <f>SUMIF(M2:M37,"Digital",N2:N37)</f>
         <v>33</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="L40" s="20" t="s">
+      <c r="L40" s="31" t="s">
         <v>158</v>
       </c>
-      <c r="M40" s="20"/>
+      <c r="M40" s="31"/>
       <c r="N40" s="3">
         <f>COUNTIF(M2:M37,"Analógico")</f>
         <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="L41" s="20" t="s">
+      <c r="L41" s="31" t="s">
         <v>159</v>
       </c>
-      <c r="M41" s="20"/>
+      <c r="M41" s="31"/>
       <c r="N41" s="3">
         <f>SUM(F2:F37)</f>
         <v>45</v>
       </c>
     </row>
     <row r="42" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="L42" s="17" t="s">
+      <c r="L42" s="28" t="s">
         <v>173</v>
       </c>
-      <c r="M42" s="17"/>
+      <c r="M42" s="28"/>
       <c r="N42" s="3">
         <f>COUNTIF(H2:J37, "Laranja")</f>
         <v>13</v>
       </c>
     </row>
     <row r="43" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="L43" s="17" t="s">
+      <c r="L43" s="28" t="s">
         <v>174</v>
       </c>
-      <c r="M43" s="17"/>
+      <c r="M43" s="28"/>
       <c r="N43" s="3">
         <f>COUNTIF(H2:J37, "Branco")</f>
         <v>28</v>
       </c>
     </row>
     <row r="44" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="L44" s="17" t="s">
+      <c r="L44" s="28" t="s">
         <v>172</v>
       </c>
-      <c r="M44" s="17"/>
+      <c r="M44" s="28"/>
       <c r="N44" s="3">
         <f>COUNTIF(H2:J37, "Azul")</f>
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="L45" s="17" t="s">
+      <c r="L45" s="28" t="s">
         <v>177</v>
       </c>
-      <c r="M45" s="17"/>
+      <c r="M45" s="28"/>
       <c r="N45" s="3">
         <f>COUNTIF(H2:J37, "Vermelho")</f>
         <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="L46" s="17" t="s">
+      <c r="L46" s="28" t="s">
         <v>176</v>
       </c>
-      <c r="M46" s="17"/>
+      <c r="M46" s="28"/>
       <c r="N46" s="3">
         <f>SUM(N42:N45)</f>
         <v>45</v>

--- a/Buttons/Button_List.xlsx
+++ b/Buttons/Button_List.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ptoth/Documents/Git/A320Overhead/Buttons/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{B73E093F-F015-F24C-9DE9-2F2327390CC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE9C05EA-A34F-2E47-88AB-5B9A1AB67F58}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="460" windowWidth="38400" windowHeight="21140" firstSheet="1" activeTab="16" xr2:uid="{FDAB788E-CCDB-1B47-AE52-300FE5AA462F}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15500" firstSheet="8" activeTab="9" xr2:uid="{FDAB788E-CCDB-1B47-AE52-300FE5AA462F}"/>
   </bookViews>
   <sheets>
     <sheet name="Iluminação" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Right_Side!$A$1:$N$19</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2013,6 +2012,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2025,18 +2031,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3548,80 +3547,80 @@
       </c>
     </row>
     <row r="29" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="L29" s="28" t="s">
+      <c r="L29" s="31" t="s">
         <v>157</v>
       </c>
-      <c r="M29" s="28"/>
+      <c r="M29" s="31"/>
       <c r="N29" s="3">
         <f>SUMIF(M2:M27,"Digital",N2:N27)</f>
         <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="L30" s="28" t="s">
+      <c r="L30" s="31" t="s">
         <v>158</v>
       </c>
-      <c r="M30" s="28"/>
+      <c r="M30" s="31"/>
       <c r="N30" s="3">
         <f>COUNTIF(M2:M27,"Analógico")</f>
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="L31" s="28" t="s">
+      <c r="L31" s="31" t="s">
         <v>159</v>
       </c>
-      <c r="M31" s="28"/>
+      <c r="M31" s="31"/>
       <c r="N31" s="3">
         <f>SUM(F2:F27)</f>
         <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="L32" s="28" t="s">
+      <c r="L32" s="31" t="s">
         <v>172</v>
       </c>
-      <c r="M32" s="28"/>
+      <c r="M32" s="31"/>
       <c r="N32" s="3">
         <f>COUNTIF(H2:J27, "Azul")</f>
         <v>6</v>
       </c>
     </row>
     <row r="33" spans="12:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="L33" s="28" t="s">
+      <c r="L33" s="31" t="s">
         <v>173</v>
       </c>
-      <c r="M33" s="28"/>
+      <c r="M33" s="31"/>
       <c r="N33" s="3">
         <f>COUNTIF(H2:J27, "Laranja")</f>
         <v>6</v>
       </c>
     </row>
     <row r="34" spans="12:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="L34" s="28" t="s">
+      <c r="L34" s="31" t="s">
         <v>174</v>
       </c>
-      <c r="M34" s="28"/>
+      <c r="M34" s="31"/>
       <c r="N34" s="3">
         <f>COUNTIF(H2:J27, "Branco")</f>
         <v>2</v>
       </c>
     </row>
     <row r="35" spans="12:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="L35" s="28" t="s">
+      <c r="L35" s="31" t="s">
         <v>175</v>
       </c>
-      <c r="M35" s="28"/>
+      <c r="M35" s="31"/>
       <c r="N35" s="3">
         <f>COUNTIF(H2:J27, "Verde")</f>
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="12:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="L36" s="28" t="s">
+      <c r="L36" s="31" t="s">
         <v>176</v>
       </c>
-      <c r="M36" s="28"/>
+      <c r="M36" s="31"/>
       <c r="N36" s="3">
         <f>SUM(N32:N35)</f>
         <v>15</v>
@@ -3648,8 +3647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7C1F4B3-22B5-C64A-9DE6-E01F62AC2D3D}">
   <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4067,13 +4066,13 @@
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="35">
+      <c r="A40" s="29">
         <v>2</v>
       </c>
       <c r="B40" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="C40" s="35" t="s">
+      <c r="C40" s="29" t="s">
         <v>220</v>
       </c>
     </row>
@@ -4089,18 +4088,19 @@
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="35">
+      <c r="A42" s="29">
         <v>4</v>
       </c>
       <c r="B42" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="C42" s="35" t="s">
+      <c r="C42" s="29" t="s">
         <v>222</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -5444,13 +5444,13 @@
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="35">
+      <c r="A40" s="29">
         <v>2</v>
       </c>
       <c r="B40" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="C40" s="35" t="s">
+      <c r="C40" s="29" t="s">
         <v>224</v>
       </c>
     </row>
@@ -5466,13 +5466,13 @@
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="35">
+      <c r="A42" s="29">
         <v>4</v>
       </c>
       <c r="B42" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="C42" s="35" t="s">
+      <c r="C42" s="29" t="s">
         <v>392</v>
       </c>
     </row>
@@ -6821,13 +6821,13 @@
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="35">
+      <c r="A40" s="29">
         <v>2</v>
       </c>
       <c r="B40" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="C40" s="35" t="s">
+      <c r="C40" s="29" t="s">
         <v>394</v>
       </c>
     </row>
@@ -6843,13 +6843,13 @@
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="35">
+      <c r="A42" s="29">
         <v>4</v>
       </c>
       <c r="B42" s="19" t="s">
         <v>516</v>
       </c>
-      <c r="C42" s="35" t="s">
+      <c r="C42" s="29" t="s">
         <v>515</v>
       </c>
     </row>
@@ -8098,11 +8098,11 @@
       <c r="C29" s="23"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="33" t="s">
+      <c r="A30" s="35" t="s">
         <v>508</v>
       </c>
-      <c r="B30" s="34"/>
-      <c r="C30" s="34"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="36"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="21"/>
@@ -8133,28 +8133,28 @@
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
       <c r="B35" s="22"/>
-      <c r="C35" s="32" t="s">
+      <c r="C35" s="28" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
       <c r="B36" s="22"/>
-      <c r="C36" s="32" t="s">
+      <c r="C36" s="28" t="s">
         <v>512</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="27"/>
       <c r="B37" s="27"/>
-      <c r="C37" s="32" t="s">
+      <c r="C37" s="28" t="s">
         <v>513</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="27"/>
       <c r="B38" s="27"/>
-      <c r="C38" s="32" t="s">
+      <c r="C38" s="28" t="s">
         <v>514</v>
       </c>
     </row>
@@ -8170,13 +8170,13 @@
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="35">
+      <c r="A42" s="29">
         <v>2</v>
       </c>
       <c r="B42" s="19" t="s">
         <v>517</v>
       </c>
-      <c r="C42" s="35" t="s">
+      <c r="C42" s="29" t="s">
         <v>517</v>
       </c>
     </row>
@@ -8192,13 +8192,13 @@
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" s="35">
+      <c r="A44" s="29">
         <v>4</v>
       </c>
       <c r="B44" s="19" t="s">
         <v>519</v>
       </c>
-      <c r="C44" s="35" t="s">
+      <c r="C44" s="29" t="s">
         <v>519</v>
       </c>
     </row>
@@ -8214,7 +8214,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4293E66-1BB4-DE4B-916B-3301AD01257C}">
   <dimension ref="A1:D64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F64" sqref="F64"/>
     </sheetView>
   </sheetViews>
@@ -8444,7 +8444,7 @@
       <c r="B18" s="21" t="s">
         <v>529</v>
       </c>
-      <c r="C18" s="36" t="s">
+      <c r="C18" s="30" t="s">
         <v>554</v>
       </c>
       <c r="D18" s="3" t="s">
@@ -8468,7 +8468,7 @@
       <c r="B20" s="21" t="s">
         <v>531</v>
       </c>
-      <c r="C20" s="36" t="s">
+      <c r="C20" s="30" t="s">
         <v>554</v>
       </c>
       <c r="D20" s="3" t="s">
@@ -8492,7 +8492,7 @@
       <c r="B22" s="21" t="s">
         <v>533</v>
       </c>
-      <c r="C22" s="36" t="s">
+      <c r="C22" s="30" t="s">
         <v>554</v>
       </c>
       <c r="D22" s="3" t="s">
@@ -8516,7 +8516,7 @@
       <c r="B24" s="21" t="s">
         <v>535</v>
       </c>
-      <c r="C24" s="36" t="s">
+      <c r="C24" s="30" t="s">
         <v>554</v>
       </c>
       <c r="D24" s="3" t="s">
@@ -9605,10 +9605,10 @@
     </row>
     <row r="15" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K15" s="5"/>
-      <c r="L15" s="28" t="s">
+      <c r="L15" s="31" t="s">
         <v>157</v>
       </c>
-      <c r="M15" s="28"/>
+      <c r="M15" s="31"/>
       <c r="N15" s="3">
         <f>SUMIF(M2:M13,"Digital",N2:N13)</f>
         <v>7</v>
@@ -9616,10 +9616,10 @@
     </row>
     <row r="16" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K16" s="5"/>
-      <c r="L16" s="28" t="s">
+      <c r="L16" s="31" t="s">
         <v>158</v>
       </c>
-      <c r="M16" s="28"/>
+      <c r="M16" s="31"/>
       <c r="N16" s="3">
         <f>COUNTIF(M2:M13,"Analógico")</f>
         <v>5</v>
@@ -9627,10 +9627,10 @@
     </row>
     <row r="17" spans="11:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K17" s="5"/>
-      <c r="L17" s="28" t="s">
+      <c r="L17" s="31" t="s">
         <v>159</v>
       </c>
-      <c r="M17" s="28"/>
+      <c r="M17" s="31"/>
       <c r="N17" s="3">
         <f>SUM(F2:F13)</f>
         <v>13</v>
@@ -9638,10 +9638,10 @@
     </row>
     <row r="18" spans="11:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K18" s="5"/>
-      <c r="L18" s="28" t="s">
+      <c r="L18" s="31" t="s">
         <v>172</v>
       </c>
-      <c r="M18" s="28"/>
+      <c r="M18" s="31"/>
       <c r="N18" s="3">
         <f>COUNTIF(H2:J13, "Azul")</f>
         <v>1</v>
@@ -9649,10 +9649,10 @@
     </row>
     <row r="19" spans="11:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K19" s="5"/>
-      <c r="L19" s="28" t="s">
+      <c r="L19" s="31" t="s">
         <v>173</v>
       </c>
-      <c r="M19" s="28"/>
+      <c r="M19" s="31"/>
       <c r="N19" s="3">
         <f>COUNTIF(H2:J13, "Laranja")</f>
         <v>6</v>
@@ -9660,10 +9660,10 @@
     </row>
     <row r="20" spans="11:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K20" s="5"/>
-      <c r="L20" s="28" t="s">
+      <c r="L20" s="31" t="s">
         <v>174</v>
       </c>
-      <c r="M20" s="28"/>
+      <c r="M20" s="31"/>
       <c r="N20" s="3">
         <f>COUNTIF(H2:J13, "Branco")</f>
         <v>6</v>
@@ -9671,10 +9671,10 @@
     </row>
     <row r="21" spans="11:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K21" s="5"/>
-      <c r="L21" s="28" t="s">
+      <c r="L21" s="31" t="s">
         <v>176</v>
       </c>
-      <c r="M21" s="28"/>
+      <c r="M21" s="31"/>
       <c r="N21" s="3">
         <f>SUM(N18:N20)</f>
         <v>13</v>
@@ -10354,10 +10354,10 @@
     </row>
     <row r="16" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K16" s="5"/>
-      <c r="L16" s="29" t="s">
+      <c r="L16" s="32" t="s">
         <v>157</v>
       </c>
-      <c r="M16" s="30"/>
+      <c r="M16" s="33"/>
       <c r="N16" s="7">
         <f>SUMIF(M1:M14,"Digital",N1:N14)</f>
         <v>17</v>
@@ -10365,10 +10365,10 @@
     </row>
     <row r="17" spans="11:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K17" s="5"/>
-      <c r="L17" s="29" t="s">
+      <c r="L17" s="32" t="s">
         <v>158</v>
       </c>
-      <c r="M17" s="30"/>
+      <c r="M17" s="33"/>
       <c r="N17" s="7">
         <f>COUNTIF(M1:M14,"Analógico")</f>
         <v>0</v>
@@ -10376,10 +10376,10 @@
     </row>
     <row r="18" spans="11:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K18" s="5"/>
-      <c r="L18" s="29" t="s">
+      <c r="L18" s="32" t="s">
         <v>159</v>
       </c>
-      <c r="M18" s="30"/>
+      <c r="M18" s="33"/>
       <c r="N18" s="7">
         <f>SUM(F1:F14)</f>
         <v>67</v>
@@ -10387,10 +10387,10 @@
     </row>
     <row r="19" spans="11:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K19" s="5"/>
-      <c r="L19" s="28" t="s">
+      <c r="L19" s="31" t="s">
         <v>173</v>
       </c>
-      <c r="M19" s="28"/>
+      <c r="M19" s="31"/>
       <c r="N19" s="3">
         <f>COUNTIF(H2:J14, "Laranja")</f>
         <v>9</v>
@@ -10398,10 +10398,10 @@
     </row>
     <row r="20" spans="11:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K20" s="5"/>
-      <c r="L20" s="28" t="s">
+      <c r="L20" s="31" t="s">
         <v>174</v>
       </c>
-      <c r="M20" s="28"/>
+      <c r="M20" s="31"/>
       <c r="N20" s="3">
         <f>COUNTIF(H2:J14, "Branco")</f>
         <v>9</v>
@@ -10409,10 +10409,10 @@
     </row>
     <row r="21" spans="11:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K21" s="5"/>
-      <c r="L21" s="28" t="s">
+      <c r="L21" s="31" t="s">
         <v>175</v>
       </c>
-      <c r="M21" s="28"/>
+      <c r="M21" s="31"/>
       <c r="N21" s="3">
         <f>COUNTIF(H2:J14, "Verde")</f>
         <v>1</v>
@@ -10420,10 +10420,10 @@
     </row>
     <row r="22" spans="11:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K22" s="5"/>
-      <c r="L22" s="28" t="s">
+      <c r="L22" s="31" t="s">
         <v>176</v>
       </c>
-      <c r="M22" s="28"/>
+      <c r="M22" s="31"/>
       <c r="N22" s="3">
         <f>SUM(N19:N21)</f>
         <v>19</v>
@@ -10884,10 +10884,10 @@
     </row>
     <row r="11" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K11" s="5"/>
-      <c r="L11" s="28" t="s">
+      <c r="L11" s="31" t="s">
         <v>157</v>
       </c>
-      <c r="M11" s="28"/>
+      <c r="M11" s="31"/>
       <c r="N11" s="3">
         <f>SUMIF(M2:M9,"Digital",N2:N9)</f>
         <v>8</v>
@@ -10895,10 +10895,10 @@
     </row>
     <row r="12" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K12" s="5"/>
-      <c r="L12" s="28" t="s">
+      <c r="L12" s="31" t="s">
         <v>158</v>
       </c>
-      <c r="M12" s="28"/>
+      <c r="M12" s="31"/>
       <c r="N12" s="3">
         <f>COUNTIF(M2:M9,"Analógico")</f>
         <v>0</v>
@@ -10906,10 +10906,10 @@
     </row>
     <row r="13" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K13" s="5"/>
-      <c r="L13" s="28" t="s">
+      <c r="L13" s="31" t="s">
         <v>159</v>
       </c>
-      <c r="M13" s="28"/>
+      <c r="M13" s="31"/>
       <c r="N13" s="3">
         <f>SUM(F2:F9)</f>
         <v>16</v>
@@ -10917,10 +10917,10 @@
     </row>
     <row r="14" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K14" s="5"/>
-      <c r="L14" s="28" t="s">
+      <c r="L14" s="31" t="s">
         <v>173</v>
       </c>
-      <c r="M14" s="28"/>
+      <c r="M14" s="31"/>
       <c r="N14" s="3">
         <f>COUNTIF(H2:J9, "Laranja")</f>
         <v>7</v>
@@ -10928,10 +10928,10 @@
     </row>
     <row r="15" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K15" s="5"/>
-      <c r="L15" s="28" t="s">
+      <c r="L15" s="31" t="s">
         <v>174</v>
       </c>
-      <c r="M15" s="28"/>
+      <c r="M15" s="31"/>
       <c r="N15" s="3">
         <f>COUNTIF(H2:J9, "Branco")</f>
         <v>8</v>
@@ -10939,10 +10939,10 @@
     </row>
     <row r="16" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K16" s="5"/>
-      <c r="L16" s="28" t="s">
+      <c r="L16" s="31" t="s">
         <v>175</v>
       </c>
-      <c r="M16" s="28"/>
+      <c r="M16" s="31"/>
       <c r="N16" s="3">
         <f>COUNTIF(H2:J9, "Verde")</f>
         <v>1</v>
@@ -10950,10 +10950,10 @@
     </row>
     <row r="17" spans="11:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K17" s="5"/>
-      <c r="L17" s="28" t="s">
+      <c r="L17" s="31" t="s">
         <v>176</v>
       </c>
-      <c r="M17" s="28"/>
+      <c r="M17" s="31"/>
       <c r="N17" s="3">
         <f>SUM(N14:N16)</f>
         <v>16</v>
@@ -11350,10 +11350,10 @@
     </row>
     <row r="9" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K9" s="5"/>
-      <c r="L9" s="28" t="s">
+      <c r="L9" s="31" t="s">
         <v>157</v>
       </c>
-      <c r="M9" s="28"/>
+      <c r="M9" s="31"/>
       <c r="N9" s="3">
         <f>SUMIF(M2:M7,"Digital",N2:N7)</f>
         <v>6</v>
@@ -11361,10 +11361,10 @@
     </row>
     <row r="10" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K10" s="5"/>
-      <c r="L10" s="28" t="s">
+      <c r="L10" s="31" t="s">
         <v>158</v>
       </c>
-      <c r="M10" s="28"/>
+      <c r="M10" s="31"/>
       <c r="N10" s="3">
         <f>COUNTIF(M2:M7,"Analógico")</f>
         <v>0</v>
@@ -11372,10 +11372,10 @@
     </row>
     <row r="11" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K11" s="5"/>
-      <c r="L11" s="28" t="s">
+      <c r="L11" s="31" t="s">
         <v>159</v>
       </c>
-      <c r="M11" s="28"/>
+      <c r="M11" s="31"/>
       <c r="N11" s="3">
         <f>SUM(F2:F7)</f>
         <v>11</v>
@@ -11383,10 +11383,10 @@
     </row>
     <row r="12" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K12" s="5"/>
-      <c r="L12" s="28" t="s">
+      <c r="L12" s="31" t="s">
         <v>173</v>
       </c>
-      <c r="M12" s="28"/>
+      <c r="M12" s="31"/>
       <c r="N12" s="3">
         <f>COUNTIF(H2:J7, "Laranja")</f>
         <v>5</v>
@@ -11394,10 +11394,10 @@
     </row>
     <row r="13" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K13" s="5"/>
-      <c r="L13" s="28" t="s">
+      <c r="L13" s="31" t="s">
         <v>174</v>
       </c>
-      <c r="M13" s="28"/>
+      <c r="M13" s="31"/>
       <c r="N13" s="3">
         <f>COUNTIF(H2:J7, "Branco")</f>
         <v>6</v>
@@ -11405,10 +11405,10 @@
     </row>
     <row r="14" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K14" s="5"/>
-      <c r="L14" s="28" t="s">
+      <c r="L14" s="31" t="s">
         <v>176</v>
       </c>
-      <c r="M14" s="28"/>
+      <c r="M14" s="31"/>
       <c r="N14" s="3">
         <f>SUM(N12:N13)</f>
         <v>11</v>
@@ -12010,10 +12010,10 @@
     </row>
     <row r="14" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K14" s="5"/>
-      <c r="L14" s="28" t="s">
+      <c r="L14" s="31" t="s">
         <v>157</v>
       </c>
-      <c r="M14" s="28"/>
+      <c r="M14" s="31"/>
       <c r="N14" s="3">
         <f>SUMIF(M2:M12,"Digital",N2:N12)</f>
         <v>11</v>
@@ -12021,10 +12021,10 @@
     </row>
     <row r="15" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K15" s="5"/>
-      <c r="L15" s="28" t="s">
+      <c r="L15" s="31" t="s">
         <v>158</v>
       </c>
-      <c r="M15" s="28"/>
+      <c r="M15" s="31"/>
       <c r="N15" s="3">
         <f>COUNTIF(M2:M12,"Analógico")</f>
         <v>0</v>
@@ -12032,10 +12032,10 @@
     </row>
     <row r="16" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K16" s="5"/>
-      <c r="L16" s="28" t="s">
+      <c r="L16" s="31" t="s">
         <v>159</v>
       </c>
-      <c r="M16" s="28"/>
+      <c r="M16" s="31"/>
       <c r="N16" s="3">
         <f>SUM(F2:F12)</f>
         <v>37</v>
@@ -12043,10 +12043,10 @@
     </row>
     <row r="17" spans="11:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K17" s="5"/>
-      <c r="L17" s="28" t="s">
+      <c r="L17" s="31" t="s">
         <v>173</v>
       </c>
-      <c r="M17" s="28"/>
+      <c r="M17" s="31"/>
       <c r="N17" s="3">
         <f>COUNTIF(H2:J12, "Laranja")</f>
         <v>5</v>
@@ -12054,10 +12054,10 @@
     </row>
     <row r="18" spans="11:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K18" s="5"/>
-      <c r="L18" s="28" t="s">
+      <c r="L18" s="31" t="s">
         <v>174</v>
       </c>
-      <c r="M18" s="28"/>
+      <c r="M18" s="31"/>
       <c r="N18" s="3">
         <f>COUNTIF(H2:J12,"Branco")</f>
         <v>8</v>
@@ -12065,10 +12065,10 @@
     </row>
     <row r="19" spans="11:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K19" s="5"/>
-      <c r="L19" s="28" t="s">
+      <c r="L19" s="31" t="s">
         <v>177</v>
       </c>
-      <c r="M19" s="28"/>
+      <c r="M19" s="31"/>
       <c r="N19" s="3">
         <f>SUM(F4,F6,F10)</f>
         <v>24</v>
@@ -12076,10 +12076,10 @@
     </row>
     <row r="20" spans="11:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K20" s="5"/>
-      <c r="L20" s="28" t="s">
+      <c r="L20" s="31" t="s">
         <v>176</v>
       </c>
-      <c r="M20" s="28"/>
+      <c r="M20" s="31"/>
       <c r="N20" s="3">
         <f>SUM(N17:N19)</f>
         <v>37</v>
@@ -12962,80 +12962,80 @@
     <row r="20" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K21" s="5"/>
-      <c r="L21" s="28" t="s">
+      <c r="L21" s="31" t="s">
         <v>157</v>
       </c>
-      <c r="M21" s="28"/>
+      <c r="M21" s="31"/>
       <c r="N21" s="3">
         <f>SUMIF(M2:M19,"Digital",N2:N19)</f>
         <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="L22" s="28" t="s">
+      <c r="L22" s="31" t="s">
         <v>158</v>
       </c>
-      <c r="M22" s="28"/>
+      <c r="M22" s="31"/>
       <c r="N22" s="3">
         <f>COUNTIF(M2:M19,"Analógico")</f>
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="L23" s="28" t="s">
+      <c r="L23" s="31" t="s">
         <v>159</v>
       </c>
-      <c r="M23" s="28"/>
+      <c r="M23" s="31"/>
       <c r="N23" s="3">
         <f>SUM(F2:F19)</f>
         <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="L24" s="28" t="s">
+      <c r="L24" s="31" t="s">
         <v>173</v>
       </c>
-      <c r="M24" s="28"/>
+      <c r="M24" s="31"/>
       <c r="N24" s="3">
         <f>COUNTIF(H2:J19, "Laranja")</f>
         <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="L25" s="28" t="s">
+      <c r="L25" s="31" t="s">
         <v>174</v>
       </c>
-      <c r="M25" s="28"/>
+      <c r="M25" s="31"/>
       <c r="N25" s="3">
         <f>COUNTIF(H2:J19, "Branco")</f>
         <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="L26" s="28" t="s">
+      <c r="L26" s="31" t="s">
         <v>172</v>
       </c>
-      <c r="M26" s="28"/>
+      <c r="M26" s="31"/>
       <c r="N26" s="3">
         <f>COUNTIF(H1:J19, "Azul")</f>
         <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="L27" s="28" t="s">
+      <c r="L27" s="31" t="s">
         <v>177</v>
       </c>
-      <c r="M27" s="28"/>
+      <c r="M27" s="31"/>
       <c r="N27" s="3">
         <f>COUNTIF(H2:J19, "Vermelho")</f>
         <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="L28" s="28" t="s">
+      <c r="L28" s="31" t="s">
         <v>176</v>
       </c>
-      <c r="M28" s="28"/>
+      <c r="M28" s="31"/>
       <c r="N28" s="3">
         <f>SUM(N24:N27)</f>
         <v>25</v>
@@ -14711,80 +14711,80 @@
       <c r="B38" s="9"/>
     </row>
     <row r="39" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="L39" s="28" t="s">
+      <c r="L39" s="31" t="s">
         <v>157</v>
       </c>
-      <c r="M39" s="28"/>
+      <c r="M39" s="31"/>
       <c r="N39" s="3">
         <f>SUMIF(M2:M37,"Digital",N2:N37)</f>
         <v>33</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="L40" s="31" t="s">
+      <c r="L40" s="34" t="s">
         <v>158</v>
       </c>
-      <c r="M40" s="31"/>
+      <c r="M40" s="34"/>
       <c r="N40" s="3">
         <f>COUNTIF(M2:M37,"Analógico")</f>
         <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="L41" s="31" t="s">
+      <c r="L41" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="M41" s="31"/>
+      <c r="M41" s="34"/>
       <c r="N41" s="3">
         <f>SUM(F2:F37)</f>
         <v>45</v>
       </c>
     </row>
     <row r="42" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="L42" s="28" t="s">
+      <c r="L42" s="31" t="s">
         <v>173</v>
       </c>
-      <c r="M42" s="28"/>
+      <c r="M42" s="31"/>
       <c r="N42" s="3">
         <f>COUNTIF(H2:J37, "Laranja")</f>
         <v>13</v>
       </c>
     </row>
     <row r="43" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="L43" s="28" t="s">
+      <c r="L43" s="31" t="s">
         <v>174</v>
       </c>
-      <c r="M43" s="28"/>
+      <c r="M43" s="31"/>
       <c r="N43" s="3">
         <f>COUNTIF(H2:J37, "Branco")</f>
         <v>28</v>
       </c>
     </row>
     <row r="44" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="L44" s="28" t="s">
+      <c r="L44" s="31" t="s">
         <v>172</v>
       </c>
-      <c r="M44" s="28"/>
+      <c r="M44" s="31"/>
       <c r="N44" s="3">
         <f>COUNTIF(H2:J37, "Azul")</f>
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="L45" s="28" t="s">
+      <c r="L45" s="31" t="s">
         <v>177</v>
       </c>
-      <c r="M45" s="28"/>
+      <c r="M45" s="31"/>
       <c r="N45" s="3">
         <f>COUNTIF(H2:J37, "Vermelho")</f>
         <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="L46" s="28" t="s">
+      <c r="L46" s="31" t="s">
         <v>176</v>
       </c>
-      <c r="M46" s="28"/>
+      <c r="M46" s="31"/>
       <c r="N46" s="3">
         <f>SUM(N42:N45)</f>
         <v>45</v>

--- a/Buttons/Button_List.xlsx
+++ b/Buttons/Button_List.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ptoth/Documents/Git/A320Overhead/Buttons/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE9C05EA-A34F-2E47-88AB-5B9A1AB67F58}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC46E423-2434-1C43-940A-96AEF8655E96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15500" firstSheet="8" activeTab="9" xr2:uid="{FDAB788E-CCDB-1B47-AE52-300FE5AA462F}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15500" activeTab="9" xr2:uid="{FDAB788E-CCDB-1B47-AE52-300FE5AA462F}"/>
   </bookViews>
   <sheets>
     <sheet name="Iluminação" sheetId="1" r:id="rId1"/>
@@ -33,6 +33,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Ar Condicionado'!$A$1:$N$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Board_01_Buttons!$A$1:$D$41</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Elec!$A$1:$N$12</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Fire!$A$1:$N$12</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Fuel!$A$1:$N$9</definedName>
@@ -59,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2718" uniqueCount="568">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2787" uniqueCount="577">
   <si>
     <t>Codigo do Botão</t>
   </si>
@@ -1763,6 +1764,33 @@
   </si>
   <si>
     <t>LED OUT 08</t>
+  </si>
+  <si>
+    <t>Cod</t>
+  </si>
+  <si>
+    <t>Nome</t>
+  </si>
+  <si>
+    <t>Pinout</t>
+  </si>
+  <si>
+    <t>Korry</t>
+  </si>
+  <si>
+    <t>3 Pole</t>
+  </si>
+  <si>
+    <t>2 Pole</t>
+  </si>
+  <si>
+    <t>Analog</t>
+  </si>
+  <si>
+    <t>0-255</t>
+  </si>
+  <si>
+    <t>Códigos Internos / Valores</t>
   </si>
 </sst>
 </file>
@@ -1931,7 +1959,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2020,6 +2048,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2035,6 +2075,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2354,7 +2398,7 @@
   <dimension ref="A1:N36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="D2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3547,80 +3591,80 @@
       </c>
     </row>
     <row r="29" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="L29" s="31" t="s">
+      <c r="L29" s="35" t="s">
         <v>157</v>
       </c>
-      <c r="M29" s="31"/>
+      <c r="M29" s="35"/>
       <c r="N29" s="3">
         <f>SUMIF(M2:M27,"Digital",N2:N27)</f>
         <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="L30" s="31" t="s">
+      <c r="L30" s="35" t="s">
         <v>158</v>
       </c>
-      <c r="M30" s="31"/>
+      <c r="M30" s="35"/>
       <c r="N30" s="3">
         <f>COUNTIF(M2:M27,"Analógico")</f>
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="L31" s="31" t="s">
+      <c r="L31" s="35" t="s">
         <v>159</v>
       </c>
-      <c r="M31" s="31"/>
+      <c r="M31" s="35"/>
       <c r="N31" s="3">
         <f>SUM(F2:F27)</f>
         <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="L32" s="31" t="s">
+      <c r="L32" s="35" t="s">
         <v>172</v>
       </c>
-      <c r="M32" s="31"/>
+      <c r="M32" s="35"/>
       <c r="N32" s="3">
         <f>COUNTIF(H2:J27, "Azul")</f>
         <v>6</v>
       </c>
     </row>
     <row r="33" spans="12:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="L33" s="31" t="s">
+      <c r="L33" s="35" t="s">
         <v>173</v>
       </c>
-      <c r="M33" s="31"/>
+      <c r="M33" s="35"/>
       <c r="N33" s="3">
         <f>COUNTIF(H2:J27, "Laranja")</f>
         <v>6</v>
       </c>
     </row>
     <row r="34" spans="12:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="L34" s="31" t="s">
+      <c r="L34" s="35" t="s">
         <v>174</v>
       </c>
-      <c r="M34" s="31"/>
+      <c r="M34" s="35"/>
       <c r="N34" s="3">
         <f>COUNTIF(H2:J27, "Branco")</f>
         <v>2</v>
       </c>
     </row>
     <row r="35" spans="12:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="L35" s="31" t="s">
+      <c r="L35" s="35" t="s">
         <v>175</v>
       </c>
-      <c r="M35" s="31"/>
+      <c r="M35" s="35"/>
       <c r="N35" s="3">
         <f>COUNTIF(H2:J27, "Verde")</f>
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="12:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="L36" s="31" t="s">
+      <c r="L36" s="35" t="s">
         <v>176</v>
       </c>
-      <c r="M36" s="31"/>
+      <c r="M36" s="35"/>
       <c r="N36" s="3">
         <f>SUM(N32:N35)</f>
         <v>15</v>
@@ -3645,10 +3689,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7C1F4B3-22B5-C64A-9DE6-E01F62AC2D3D}">
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3656,449 +3700,959 @@
     <col min="1" max="1" width="9.83203125" customWidth="1"/>
     <col min="2" max="2" width="28.1640625" customWidth="1"/>
     <col min="3" max="3" width="28.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.83203125" customWidth="1"/>
+    <col min="5" max="6" width="10.83203125" style="41"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="17">
-        <v>1</v>
-      </c>
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="31" t="s">
+        <v>568</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>569</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>570</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="42" t="s">
+        <v>576</v>
+      </c>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="E2" s="2">
+        <v>100</v>
+      </c>
+      <c r="F2" s="32" t="s">
+        <v>575</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="18">
+      <c r="D3" s="3" t="s">
+        <v>571</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3">
         <v>2</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="G3" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="33">
+        <v>2</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>220</v>
+      </c>
+      <c r="D4" s="33" t="s">
+        <v>574</v>
+      </c>
+      <c r="E4" s="33">
+        <v>101</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="G4" s="33" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="33">
+        <v>2</v>
+      </c>
+      <c r="B5" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C5" s="19" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="17">
+      <c r="D5" s="19" t="s">
+        <v>571</v>
+      </c>
+      <c r="E5" s="19">
         <v>3</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="F5" s="19">
+        <v>4</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="E6" s="2">
+        <v>102</v>
+      </c>
+      <c r="F6" s="32" t="s">
+        <v>575</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>3</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C7" s="8" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="18">
+      <c r="D7" s="8" t="s">
+        <v>571</v>
+      </c>
+      <c r="E7" s="8">
+        <v>5</v>
+      </c>
+      <c r="F7" s="8">
+        <v>6</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="33">
         <v>4</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B8" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C8" s="19" t="s">
+        <v>474</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>572</v>
+      </c>
+      <c r="E8" s="19">
+        <v>7</v>
+      </c>
+      <c r="F8" s="19">
+        <v>8</v>
+      </c>
+      <c r="G8" s="19">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="33">
+        <v>4</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="19" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="18">
+      <c r="D9" s="19" t="s">
+        <v>572</v>
+      </c>
+      <c r="E9" s="19">
+        <v>10</v>
+      </c>
+      <c r="F9" s="19">
+        <v>11</v>
+      </c>
+      <c r="G9" s="19">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="33">
         <v>4</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B10" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="33" t="s">
+        <v>222</v>
+      </c>
+      <c r="D10" s="33" t="s">
+        <v>574</v>
+      </c>
+      <c r="E10" s="33">
+        <v>103</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="G10" s="33" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>5</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>475</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>572</v>
+      </c>
+      <c r="E11" s="8">
+        <v>13</v>
+      </c>
+      <c r="F11" s="8">
+        <v>14</v>
+      </c>
+      <c r="G11" s="8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>5</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>476</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>572</v>
+      </c>
+      <c r="E12" s="8">
+        <v>16</v>
+      </c>
+      <c r="F12" s="8">
+        <v>17</v>
+      </c>
+      <c r="G12" s="8">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="33">
         <v>6</v>
       </c>
-      <c r="C5" s="19" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="17">
+      <c r="B13" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>477</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>572</v>
+      </c>
+      <c r="E13" s="19">
+        <v>19</v>
+      </c>
+      <c r="F13" s="19">
+        <v>20</v>
+      </c>
+      <c r="G13" s="19">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="33">
+        <v>6</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>478</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>572</v>
+      </c>
+      <c r="E14" s="19">
+        <v>22</v>
+      </c>
+      <c r="F14" s="19">
+        <v>23</v>
+      </c>
+      <c r="G14" s="19">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <v>7</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="E15" s="3">
+        <v>25</v>
+      </c>
+      <c r="F15" s="3">
+        <v>26</v>
+      </c>
+      <c r="G15" s="3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <v>7</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="E16" s="3">
+        <v>28</v>
+      </c>
+      <c r="F16" s="3">
+        <v>29</v>
+      </c>
+      <c r="G16" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="33">
+        <v>8</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>481</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>572</v>
+      </c>
+      <c r="E17" s="19">
+        <v>31</v>
+      </c>
+      <c r="F17" s="19">
+        <v>32</v>
+      </c>
+      <c r="G17" s="19">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="33">
+        <v>8</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>482</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>572</v>
+      </c>
+      <c r="E18" s="19">
+        <v>34</v>
+      </c>
+      <c r="F18" s="19">
+        <v>35</v>
+      </c>
+      <c r="G18" s="19">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
+        <v>9</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>483</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>572</v>
+      </c>
+      <c r="E19" s="8">
+        <v>37</v>
+      </c>
+      <c r="F19" s="8">
+        <v>38</v>
+      </c>
+      <c r="G19" s="8">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
+        <v>9</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>484</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>572</v>
+      </c>
+      <c r="E20" s="8">
+        <v>40</v>
+      </c>
+      <c r="F20" s="8">
+        <v>41</v>
+      </c>
+      <c r="G20" s="8">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="33">
+        <v>10</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>485</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>572</v>
+      </c>
+      <c r="E21" s="19">
+        <v>43</v>
+      </c>
+      <c r="F21" s="19">
+        <v>44</v>
+      </c>
+      <c r="G21" s="19">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="33">
+        <v>10</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>486</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>572</v>
+      </c>
+      <c r="E22" s="19">
+        <v>46</v>
+      </c>
+      <c r="F22" s="19">
+        <v>47</v>
+      </c>
+      <c r="G22" s="19">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
+        <v>11</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="E23" s="3">
+        <v>49</v>
+      </c>
+      <c r="F23" s="3">
+        <v>50</v>
+      </c>
+      <c r="G23" s="3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="2">
+        <v>11</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="E24" s="3">
+        <v>52</v>
+      </c>
+      <c r="F24" s="3">
+        <v>53</v>
+      </c>
+      <c r="G24" s="3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="33">
+        <v>12</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>489</v>
+      </c>
+      <c r="D25" s="20" t="s">
+        <v>572</v>
+      </c>
+      <c r="E25" s="20">
+        <v>55</v>
+      </c>
+      <c r="F25" s="20">
+        <v>56</v>
+      </c>
+      <c r="G25" s="20">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="33">
+        <v>12</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>490</v>
+      </c>
+      <c r="D26" s="20" t="s">
+        <v>572</v>
+      </c>
+      <c r="E26" s="20">
+        <v>58</v>
+      </c>
+      <c r="F26" s="20">
+        <v>59</v>
+      </c>
+      <c r="G26" s="20">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="2">
+        <v>13</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="E27" s="3">
+        <v>61</v>
+      </c>
+      <c r="F27" s="3">
+        <v>62</v>
+      </c>
+      <c r="G27" s="3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="2">
+        <v>13</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="E28" s="3">
+        <v>64</v>
+      </c>
+      <c r="F28" s="3">
+        <v>65</v>
+      </c>
+      <c r="G28" s="3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="33">
+        <v>14</v>
+      </c>
+      <c r="B29" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="33" t="s">
+        <v>205</v>
+      </c>
+      <c r="D29" s="33" t="s">
+        <v>573</v>
+      </c>
+      <c r="E29" s="33">
+        <v>67</v>
+      </c>
+      <c r="F29" s="33">
+        <v>68</v>
+      </c>
+      <c r="G29" s="33" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="34">
+        <v>15</v>
+      </c>
+      <c r="B30" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="17">
+      <c r="C30" s="23" t="s">
+        <v>206</v>
+      </c>
+      <c r="D30" s="23" t="s">
+        <v>573</v>
+      </c>
+      <c r="E30" s="23">
+        <v>69</v>
+      </c>
+      <c r="F30" s="23">
+        <v>70</v>
+      </c>
+      <c r="G30" s="23" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="33">
+        <v>16</v>
+      </c>
+      <c r="B31" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="33" t="s">
+        <v>207</v>
+      </c>
+      <c r="D31" s="33" t="s">
+        <v>573</v>
+      </c>
+      <c r="E31" s="33">
+        <v>71</v>
+      </c>
+      <c r="F31" s="33">
+        <v>72</v>
+      </c>
+      <c r="G31" s="33" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="34">
+        <v>17</v>
+      </c>
+      <c r="B32" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C32" s="22" t="s">
+        <v>208</v>
+      </c>
+      <c r="D32" s="22" t="s">
+        <v>573</v>
+      </c>
+      <c r="E32" s="22">
+        <v>73</v>
+      </c>
+      <c r="F32" s="22">
+        <v>74</v>
+      </c>
+      <c r="G32" s="22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="33">
+        <v>18</v>
+      </c>
+      <c r="B33" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="18">
-        <v>6</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="18">
-        <v>6</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="17">
-        <v>7</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="17">
-        <v>7</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="18">
-        <v>8</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="18">
-        <v>8</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="17">
-        <v>9</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="17">
-        <v>9</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="18">
-        <v>10</v>
-      </c>
-      <c r="B16" s="19" t="s">
+      <c r="C33" s="33" t="s">
+        <v>196</v>
+      </c>
+      <c r="D33" s="33" t="s">
+        <v>571</v>
+      </c>
+      <c r="E33" s="33">
+        <v>75</v>
+      </c>
+      <c r="F33" s="33">
+        <v>76</v>
+      </c>
+      <c r="G33" s="33" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="34">
+        <v>19</v>
+      </c>
+      <c r="B34" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="D34" s="22" t="s">
+        <v>571</v>
+      </c>
+      <c r="E34" s="22">
+        <v>77</v>
+      </c>
+      <c r="F34" s="22">
+        <v>78</v>
+      </c>
+      <c r="G34" s="22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="33">
+        <v>20</v>
+      </c>
+      <c r="B35" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="C35" s="33" t="s">
+        <v>198</v>
+      </c>
+      <c r="D35" s="33" t="s">
+        <v>571</v>
+      </c>
+      <c r="E35" s="33">
+        <v>79</v>
+      </c>
+      <c r="F35" s="33">
+        <v>80</v>
+      </c>
+      <c r="G35" s="33" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="34">
         <v>21</v>
       </c>
-      <c r="C16" s="19" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="18">
-        <v>10</v>
-      </c>
-      <c r="B17" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="17">
-        <v>11</v>
-      </c>
-      <c r="B18" s="3" t="s">
+      <c r="B36" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="D36" s="22" t="s">
+        <v>571</v>
+      </c>
+      <c r="E36" s="22">
+        <v>81</v>
+      </c>
+      <c r="F36" s="22">
+        <v>82</v>
+      </c>
+      <c r="G36" s="22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="33">
         <v>22</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="17">
-        <v>11</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="18">
-        <v>12</v>
-      </c>
-      <c r="B20" s="20" t="s">
+      <c r="B37" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37" s="33" t="s">
+        <v>200</v>
+      </c>
+      <c r="D37" s="33" t="s">
+        <v>571</v>
+      </c>
+      <c r="E37" s="33">
+        <v>83</v>
+      </c>
+      <c r="F37" s="33">
+        <v>84</v>
+      </c>
+      <c r="G37" s="33" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="34">
         <v>23</v>
       </c>
-      <c r="C20" s="20" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="18">
-        <v>12</v>
-      </c>
-      <c r="B21" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" s="20" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="17">
-        <v>13</v>
-      </c>
-      <c r="B22" s="3" t="s">
+      <c r="B38" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="D38" s="22" t="s">
+        <v>571</v>
+      </c>
+      <c r="E38" s="22">
+        <v>85</v>
+      </c>
+      <c r="F38" s="22">
+        <v>86</v>
+      </c>
+      <c r="G38" s="22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="33">
+        <v>24</v>
+      </c>
+      <c r="B39" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="C39" s="33" t="s">
+        <v>202</v>
+      </c>
+      <c r="D39" s="33" t="s">
+        <v>571</v>
+      </c>
+      <c r="E39" s="33">
+        <v>87</v>
+      </c>
+      <c r="F39" s="33">
+        <v>88</v>
+      </c>
+      <c r="G39" s="33" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" s="34">
         <v>25</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="18">
-        <v>13</v>
-      </c>
-      <c r="B23" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" s="19" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="17">
-        <v>14</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="18">
-        <v>15</v>
-      </c>
-      <c r="B25" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" s="20" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="17">
-        <v>16</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="18">
-        <v>17</v>
-      </c>
-      <c r="B27" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="C27" s="19" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="17">
-        <v>18</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="18">
+      <c r="B40" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="B29" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="C29" s="19" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="17">
-        <v>20</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="18">
-        <v>21</v>
-      </c>
-      <c r="B31" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="C31" s="19" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="17">
-        <v>22</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="18">
-        <v>23</v>
-      </c>
-      <c r="B33" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="C33" s="19" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="17">
+      <c r="C40" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="D40" s="22" t="s">
+        <v>571</v>
+      </c>
+      <c r="E40" s="22">
+        <v>89</v>
+      </c>
+      <c r="F40" s="22">
+        <v>90</v>
+      </c>
+      <c r="G40" s="22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="33">
+        <v>26</v>
+      </c>
+      <c r="B41" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="B34" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="18">
-        <v>25</v>
-      </c>
-      <c r="B35" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C35" s="19" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="17">
-        <v>26</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C36" s="3" t="s">
+      <c r="C41" s="33" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="27">
-        <v>1</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C39" s="27" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="29">
-        <v>2</v>
-      </c>
-      <c r="B40" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="C40" s="29" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="27">
-        <v>3</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C41" s="27" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="29">
-        <v>4</v>
-      </c>
-      <c r="B42" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="C42" s="29" t="s">
-        <v>222</v>
+      <c r="D41" s="33" t="s">
+        <v>571</v>
+      </c>
+      <c r="E41" s="33">
+        <v>91</v>
+      </c>
+      <c r="F41" s="33">
+        <v>92</v>
+      </c>
+      <c r="G41" s="33" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D41" xr:uid="{C7C1F4B3-22B5-C64A-9DE6-E01F62AC2D3D}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D41">
+      <sortCondition ref="A1:A41"/>
+    </sortState>
+  </autoFilter>
+  <mergeCells count="1">
+    <mergeCell ref="E1:G1"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -8098,11 +8652,11 @@
       <c r="C29" s="23"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="35" t="s">
+      <c r="A30" s="39" t="s">
         <v>508</v>
       </c>
-      <c r="B30" s="36"/>
-      <c r="C30" s="36"/>
+      <c r="B30" s="40"/>
+      <c r="C30" s="40"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="21"/>
@@ -9605,10 +10159,10 @@
     </row>
     <row r="15" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K15" s="5"/>
-      <c r="L15" s="31" t="s">
+      <c r="L15" s="35" t="s">
         <v>157</v>
       </c>
-      <c r="M15" s="31"/>
+      <c r="M15" s="35"/>
       <c r="N15" s="3">
         <f>SUMIF(M2:M13,"Digital",N2:N13)</f>
         <v>7</v>
@@ -9616,10 +10170,10 @@
     </row>
     <row r="16" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K16" s="5"/>
-      <c r="L16" s="31" t="s">
+      <c r="L16" s="35" t="s">
         <v>158</v>
       </c>
-      <c r="M16" s="31"/>
+      <c r="M16" s="35"/>
       <c r="N16" s="3">
         <f>COUNTIF(M2:M13,"Analógico")</f>
         <v>5</v>
@@ -9627,10 +10181,10 @@
     </row>
     <row r="17" spans="11:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K17" s="5"/>
-      <c r="L17" s="31" t="s">
+      <c r="L17" s="35" t="s">
         <v>159</v>
       </c>
-      <c r="M17" s="31"/>
+      <c r="M17" s="35"/>
       <c r="N17" s="3">
         <f>SUM(F2:F13)</f>
         <v>13</v>
@@ -9638,10 +10192,10 @@
     </row>
     <row r="18" spans="11:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K18" s="5"/>
-      <c r="L18" s="31" t="s">
+      <c r="L18" s="35" t="s">
         <v>172</v>
       </c>
-      <c r="M18" s="31"/>
+      <c r="M18" s="35"/>
       <c r="N18" s="3">
         <f>COUNTIF(H2:J13, "Azul")</f>
         <v>1</v>
@@ -9649,10 +10203,10 @@
     </row>
     <row r="19" spans="11:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K19" s="5"/>
-      <c r="L19" s="31" t="s">
+      <c r="L19" s="35" t="s">
         <v>173</v>
       </c>
-      <c r="M19" s="31"/>
+      <c r="M19" s="35"/>
       <c r="N19" s="3">
         <f>COUNTIF(H2:J13, "Laranja")</f>
         <v>6</v>
@@ -9660,10 +10214,10 @@
     </row>
     <row r="20" spans="11:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K20" s="5"/>
-      <c r="L20" s="31" t="s">
+      <c r="L20" s="35" t="s">
         <v>174</v>
       </c>
-      <c r="M20" s="31"/>
+      <c r="M20" s="35"/>
       <c r="N20" s="3">
         <f>COUNTIF(H2:J13, "Branco")</f>
         <v>6</v>
@@ -9671,10 +10225,10 @@
     </row>
     <row r="21" spans="11:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K21" s="5"/>
-      <c r="L21" s="31" t="s">
+      <c r="L21" s="35" t="s">
         <v>176</v>
       </c>
-      <c r="M21" s="31"/>
+      <c r="M21" s="35"/>
       <c r="N21" s="3">
         <f>SUM(N18:N20)</f>
         <v>13</v>
@@ -10354,10 +10908,10 @@
     </row>
     <row r="16" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K16" s="5"/>
-      <c r="L16" s="32" t="s">
+      <c r="L16" s="36" t="s">
         <v>157</v>
       </c>
-      <c r="M16" s="33"/>
+      <c r="M16" s="37"/>
       <c r="N16" s="7">
         <f>SUMIF(M1:M14,"Digital",N1:N14)</f>
         <v>17</v>
@@ -10365,10 +10919,10 @@
     </row>
     <row r="17" spans="11:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K17" s="5"/>
-      <c r="L17" s="32" t="s">
+      <c r="L17" s="36" t="s">
         <v>158</v>
       </c>
-      <c r="M17" s="33"/>
+      <c r="M17" s="37"/>
       <c r="N17" s="7">
         <f>COUNTIF(M1:M14,"Analógico")</f>
         <v>0</v>
@@ -10376,10 +10930,10 @@
     </row>
     <row r="18" spans="11:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K18" s="5"/>
-      <c r="L18" s="32" t="s">
+      <c r="L18" s="36" t="s">
         <v>159</v>
       </c>
-      <c r="M18" s="33"/>
+      <c r="M18" s="37"/>
       <c r="N18" s="7">
         <f>SUM(F1:F14)</f>
         <v>67</v>
@@ -10387,10 +10941,10 @@
     </row>
     <row r="19" spans="11:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K19" s="5"/>
-      <c r="L19" s="31" t="s">
+      <c r="L19" s="35" t="s">
         <v>173</v>
       </c>
-      <c r="M19" s="31"/>
+      <c r="M19" s="35"/>
       <c r="N19" s="3">
         <f>COUNTIF(H2:J14, "Laranja")</f>
         <v>9</v>
@@ -10398,10 +10952,10 @@
     </row>
     <row r="20" spans="11:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K20" s="5"/>
-      <c r="L20" s="31" t="s">
+      <c r="L20" s="35" t="s">
         <v>174</v>
       </c>
-      <c r="M20" s="31"/>
+      <c r="M20" s="35"/>
       <c r="N20" s="3">
         <f>COUNTIF(H2:J14, "Branco")</f>
         <v>9</v>
@@ -10409,10 +10963,10 @@
     </row>
     <row r="21" spans="11:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K21" s="5"/>
-      <c r="L21" s="31" t="s">
+      <c r="L21" s="35" t="s">
         <v>175</v>
       </c>
-      <c r="M21" s="31"/>
+      <c r="M21" s="35"/>
       <c r="N21" s="3">
         <f>COUNTIF(H2:J14, "Verde")</f>
         <v>1</v>
@@ -10420,10 +10974,10 @@
     </row>
     <row r="22" spans="11:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K22" s="5"/>
-      <c r="L22" s="31" t="s">
+      <c r="L22" s="35" t="s">
         <v>176</v>
       </c>
-      <c r="M22" s="31"/>
+      <c r="M22" s="35"/>
       <c r="N22" s="3">
         <f>SUM(N19:N21)</f>
         <v>19</v>
@@ -10884,10 +11438,10 @@
     </row>
     <row r="11" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K11" s="5"/>
-      <c r="L11" s="31" t="s">
+      <c r="L11" s="35" t="s">
         <v>157</v>
       </c>
-      <c r="M11" s="31"/>
+      <c r="M11" s="35"/>
       <c r="N11" s="3">
         <f>SUMIF(M2:M9,"Digital",N2:N9)</f>
         <v>8</v>
@@ -10895,10 +11449,10 @@
     </row>
     <row r="12" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K12" s="5"/>
-      <c r="L12" s="31" t="s">
+      <c r="L12" s="35" t="s">
         <v>158</v>
       </c>
-      <c r="M12" s="31"/>
+      <c r="M12" s="35"/>
       <c r="N12" s="3">
         <f>COUNTIF(M2:M9,"Analógico")</f>
         <v>0</v>
@@ -10906,10 +11460,10 @@
     </row>
     <row r="13" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K13" s="5"/>
-      <c r="L13" s="31" t="s">
+      <c r="L13" s="35" t="s">
         <v>159</v>
       </c>
-      <c r="M13" s="31"/>
+      <c r="M13" s="35"/>
       <c r="N13" s="3">
         <f>SUM(F2:F9)</f>
         <v>16</v>
@@ -10917,10 +11471,10 @@
     </row>
     <row r="14" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K14" s="5"/>
-      <c r="L14" s="31" t="s">
+      <c r="L14" s="35" t="s">
         <v>173</v>
       </c>
-      <c r="M14" s="31"/>
+      <c r="M14" s="35"/>
       <c r="N14" s="3">
         <f>COUNTIF(H2:J9, "Laranja")</f>
         <v>7</v>
@@ -10928,10 +11482,10 @@
     </row>
     <row r="15" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K15" s="5"/>
-      <c r="L15" s="31" t="s">
+      <c r="L15" s="35" t="s">
         <v>174</v>
       </c>
-      <c r="M15" s="31"/>
+      <c r="M15" s="35"/>
       <c r="N15" s="3">
         <f>COUNTIF(H2:J9, "Branco")</f>
         <v>8</v>
@@ -10939,10 +11493,10 @@
     </row>
     <row r="16" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K16" s="5"/>
-      <c r="L16" s="31" t="s">
+      <c r="L16" s="35" t="s">
         <v>175</v>
       </c>
-      <c r="M16" s="31"/>
+      <c r="M16" s="35"/>
       <c r="N16" s="3">
         <f>COUNTIF(H2:J9, "Verde")</f>
         <v>1</v>
@@ -10950,10 +11504,10 @@
     </row>
     <row r="17" spans="11:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K17" s="5"/>
-      <c r="L17" s="31" t="s">
+      <c r="L17" s="35" t="s">
         <v>176</v>
       </c>
-      <c r="M17" s="31"/>
+      <c r="M17" s="35"/>
       <c r="N17" s="3">
         <f>SUM(N14:N16)</f>
         <v>16</v>
@@ -11350,10 +11904,10 @@
     </row>
     <row r="9" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K9" s="5"/>
-      <c r="L9" s="31" t="s">
+      <c r="L9" s="35" t="s">
         <v>157</v>
       </c>
-      <c r="M9" s="31"/>
+      <c r="M9" s="35"/>
       <c r="N9" s="3">
         <f>SUMIF(M2:M7,"Digital",N2:N7)</f>
         <v>6</v>
@@ -11361,10 +11915,10 @@
     </row>
     <row r="10" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K10" s="5"/>
-      <c r="L10" s="31" t="s">
+      <c r="L10" s="35" t="s">
         <v>158</v>
       </c>
-      <c r="M10" s="31"/>
+      <c r="M10" s="35"/>
       <c r="N10" s="3">
         <f>COUNTIF(M2:M7,"Analógico")</f>
         <v>0</v>
@@ -11372,10 +11926,10 @@
     </row>
     <row r="11" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K11" s="5"/>
-      <c r="L11" s="31" t="s">
+      <c r="L11" s="35" t="s">
         <v>159</v>
       </c>
-      <c r="M11" s="31"/>
+      <c r="M11" s="35"/>
       <c r="N11" s="3">
         <f>SUM(F2:F7)</f>
         <v>11</v>
@@ -11383,10 +11937,10 @@
     </row>
     <row r="12" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K12" s="5"/>
-      <c r="L12" s="31" t="s">
+      <c r="L12" s="35" t="s">
         <v>173</v>
       </c>
-      <c r="M12" s="31"/>
+      <c r="M12" s="35"/>
       <c r="N12" s="3">
         <f>COUNTIF(H2:J7, "Laranja")</f>
         <v>5</v>
@@ -11394,10 +11948,10 @@
     </row>
     <row r="13" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K13" s="5"/>
-      <c r="L13" s="31" t="s">
+      <c r="L13" s="35" t="s">
         <v>174</v>
       </c>
-      <c r="M13" s="31"/>
+      <c r="M13" s="35"/>
       <c r="N13" s="3">
         <f>COUNTIF(H2:J7, "Branco")</f>
         <v>6</v>
@@ -11405,10 +11959,10 @@
     </row>
     <row r="14" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K14" s="5"/>
-      <c r="L14" s="31" t="s">
+      <c r="L14" s="35" t="s">
         <v>176</v>
       </c>
-      <c r="M14" s="31"/>
+      <c r="M14" s="35"/>
       <c r="N14" s="3">
         <f>SUM(N12:N13)</f>
         <v>11</v>
@@ -12010,10 +12564,10 @@
     </row>
     <row r="14" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K14" s="5"/>
-      <c r="L14" s="31" t="s">
+      <c r="L14" s="35" t="s">
         <v>157</v>
       </c>
-      <c r="M14" s="31"/>
+      <c r="M14" s="35"/>
       <c r="N14" s="3">
         <f>SUMIF(M2:M12,"Digital",N2:N12)</f>
         <v>11</v>
@@ -12021,10 +12575,10 @@
     </row>
     <row r="15" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K15" s="5"/>
-      <c r="L15" s="31" t="s">
+      <c r="L15" s="35" t="s">
         <v>158</v>
       </c>
-      <c r="M15" s="31"/>
+      <c r="M15" s="35"/>
       <c r="N15" s="3">
         <f>COUNTIF(M2:M12,"Analógico")</f>
         <v>0</v>
@@ -12032,10 +12586,10 @@
     </row>
     <row r="16" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K16" s="5"/>
-      <c r="L16" s="31" t="s">
+      <c r="L16" s="35" t="s">
         <v>159</v>
       </c>
-      <c r="M16" s="31"/>
+      <c r="M16" s="35"/>
       <c r="N16" s="3">
         <f>SUM(F2:F12)</f>
         <v>37</v>
@@ -12043,10 +12597,10 @@
     </row>
     <row r="17" spans="11:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K17" s="5"/>
-      <c r="L17" s="31" t="s">
+      <c r="L17" s="35" t="s">
         <v>173</v>
       </c>
-      <c r="M17" s="31"/>
+      <c r="M17" s="35"/>
       <c r="N17" s="3">
         <f>COUNTIF(H2:J12, "Laranja")</f>
         <v>5</v>
@@ -12054,10 +12608,10 @@
     </row>
     <row r="18" spans="11:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K18" s="5"/>
-      <c r="L18" s="31" t="s">
+      <c r="L18" s="35" t="s">
         <v>174</v>
       </c>
-      <c r="M18" s="31"/>
+      <c r="M18" s="35"/>
       <c r="N18" s="3">
         <f>COUNTIF(H2:J12,"Branco")</f>
         <v>8</v>
@@ -12065,10 +12619,10 @@
     </row>
     <row r="19" spans="11:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K19" s="5"/>
-      <c r="L19" s="31" t="s">
+      <c r="L19" s="35" t="s">
         <v>177</v>
       </c>
-      <c r="M19" s="31"/>
+      <c r="M19" s="35"/>
       <c r="N19" s="3">
         <f>SUM(F4,F6,F10)</f>
         <v>24</v>
@@ -12076,10 +12630,10 @@
     </row>
     <row r="20" spans="11:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K20" s="5"/>
-      <c r="L20" s="31" t="s">
+      <c r="L20" s="35" t="s">
         <v>176</v>
       </c>
-      <c r="M20" s="31"/>
+      <c r="M20" s="35"/>
       <c r="N20" s="3">
         <f>SUM(N17:N19)</f>
         <v>37</v>
@@ -12962,80 +13516,80 @@
     <row r="20" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K21" s="5"/>
-      <c r="L21" s="31" t="s">
+      <c r="L21" s="35" t="s">
         <v>157</v>
       </c>
-      <c r="M21" s="31"/>
+      <c r="M21" s="35"/>
       <c r="N21" s="3">
         <f>SUMIF(M2:M19,"Digital",N2:N19)</f>
         <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="L22" s="31" t="s">
+      <c r="L22" s="35" t="s">
         <v>158</v>
       </c>
-      <c r="M22" s="31"/>
+      <c r="M22" s="35"/>
       <c r="N22" s="3">
         <f>COUNTIF(M2:M19,"Analógico")</f>
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="L23" s="31" t="s">
+      <c r="L23" s="35" t="s">
         <v>159</v>
       </c>
-      <c r="M23" s="31"/>
+      <c r="M23" s="35"/>
       <c r="N23" s="3">
         <f>SUM(F2:F19)</f>
         <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="L24" s="31" t="s">
+      <c r="L24" s="35" t="s">
         <v>173</v>
       </c>
-      <c r="M24" s="31"/>
+      <c r="M24" s="35"/>
       <c r="N24" s="3">
         <f>COUNTIF(H2:J19, "Laranja")</f>
         <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="L25" s="31" t="s">
+      <c r="L25" s="35" t="s">
         <v>174</v>
       </c>
-      <c r="M25" s="31"/>
+      <c r="M25" s="35"/>
       <c r="N25" s="3">
         <f>COUNTIF(H2:J19, "Branco")</f>
         <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="L26" s="31" t="s">
+      <c r="L26" s="35" t="s">
         <v>172</v>
       </c>
-      <c r="M26" s="31"/>
+      <c r="M26" s="35"/>
       <c r="N26" s="3">
         <f>COUNTIF(H1:J19, "Azul")</f>
         <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="L27" s="31" t="s">
+      <c r="L27" s="35" t="s">
         <v>177</v>
       </c>
-      <c r="M27" s="31"/>
+      <c r="M27" s="35"/>
       <c r="N27" s="3">
         <f>COUNTIF(H2:J19, "Vermelho")</f>
         <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="L28" s="31" t="s">
+      <c r="L28" s="35" t="s">
         <v>176</v>
       </c>
-      <c r="M28" s="31"/>
+      <c r="M28" s="35"/>
       <c r="N28" s="3">
         <f>SUM(N24:N27)</f>
         <v>25</v>
@@ -14711,80 +15265,80 @@
       <c r="B38" s="9"/>
     </row>
     <row r="39" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="L39" s="31" t="s">
+      <c r="L39" s="35" t="s">
         <v>157</v>
       </c>
-      <c r="M39" s="31"/>
+      <c r="M39" s="35"/>
       <c r="N39" s="3">
         <f>SUMIF(M2:M37,"Digital",N2:N37)</f>
         <v>33</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="L40" s="34" t="s">
+      <c r="L40" s="38" t="s">
         <v>158</v>
       </c>
-      <c r="M40" s="34"/>
+      <c r="M40" s="38"/>
       <c r="N40" s="3">
         <f>COUNTIF(M2:M37,"Analógico")</f>
         <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="L41" s="34" t="s">
+      <c r="L41" s="38" t="s">
         <v>159</v>
       </c>
-      <c r="M41" s="34"/>
+      <c r="M41" s="38"/>
       <c r="N41" s="3">
         <f>SUM(F2:F37)</f>
         <v>45</v>
       </c>
     </row>
     <row r="42" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="L42" s="31" t="s">
+      <c r="L42" s="35" t="s">
         <v>173</v>
       </c>
-      <c r="M42" s="31"/>
+      <c r="M42" s="35"/>
       <c r="N42" s="3">
         <f>COUNTIF(H2:J37, "Laranja")</f>
         <v>13</v>
       </c>
     </row>
     <row r="43" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="L43" s="31" t="s">
+      <c r="L43" s="35" t="s">
         <v>174</v>
       </c>
-      <c r="M43" s="31"/>
+      <c r="M43" s="35"/>
       <c r="N43" s="3">
         <f>COUNTIF(H2:J37, "Branco")</f>
         <v>28</v>
       </c>
     </row>
     <row r="44" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="L44" s="31" t="s">
+      <c r="L44" s="35" t="s">
         <v>172</v>
       </c>
-      <c r="M44" s="31"/>
+      <c r="M44" s="35"/>
       <c r="N44" s="3">
         <f>COUNTIF(H2:J37, "Azul")</f>
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="L45" s="31" t="s">
+      <c r="L45" s="35" t="s">
         <v>177</v>
       </c>
-      <c r="M45" s="31"/>
+      <c r="M45" s="35"/>
       <c r="N45" s="3">
         <f>COUNTIF(H2:J37, "Vermelho")</f>
         <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="L46" s="31" t="s">
+      <c r="L46" s="35" t="s">
         <v>176</v>
       </c>
-      <c r="M46" s="31"/>
+      <c r="M46" s="35"/>
       <c r="N46" s="3">
         <f>SUM(N42:N45)</f>
         <v>45</v>
